--- a/TP1/Dados/Encriptacao/Decrypted/decoded_from_api.xlsx
+++ b/TP1/Dados/Encriptacao/Decrypted/decoded_from_api.xlsx
@@ -192,64 +192,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wired</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Millions of Vehicles Could Be Hacked and Tracked Thanks to a Simple Website Bug</t>
+          <t>For Prime Day, the best security software for a Mac is on sale at 60% off</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Andy Greenberg</t>
+          <t>Gizmodo Deals</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Researchers found a flaw in a Kia web portal that let them track millions of cars, unlock doors, and start engines at will—the latest in a plague of web bugs that’s affected a dozen carmakers.</t>
+          <t>Over 40 million clients trust the Intego antivirus software.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In January 2023, they published the initial results of their work, an enormous collection of web vulnerabilities affecting Kia, Honda, Infiniti, Nissan, Acura, Mercedes-Benz, Hyundai, Genesis, BMW, R… [+3634 chars]</t>
+          <t>As Prime Day weekend is here, Intego is rolling out an exceptional offer that Mac users shouldn’t miss. The world renowned antivirus provider for Mac is slashing prices on its flagship software and o… [+2383 chars]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/kia-web-vulnerability-vehicle-hack-track/</t>
+          <t>https://gizmodo.com/for-prime-day-the-best-security-software-for-a-mac-is-on-sale-at-60-off-2000507531</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For Prime Day, the best security software for a Mac is on sale at 60% off</t>
+          <t>Chelsea Manning avoids Google and Microsoft — and says she prefers Apple products for cybersecurity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gizmodo Deals</t>
+          <t>Katherine Tangalakis-Lippert</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Over 40 million clients trust the Intego antivirus software.</t>
+          <t>Chelsea Manning is the face of a new VPN called Nym. She's also speaking out about cybersecurity in general, saying she deems Apple products the best.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>As Prime Day weekend is here, Intego is rolling out an exceptional offer that Mac users shouldn’t miss. The world renowned antivirus provider for Mac is slashing prices on its flagship software and o… [+2383 chars]</t>
+          <t>Chelsea Manning says she thinks Apple has the best security among Big Tech companies — and says she avoids Microsoft and Google products.Getty Images
+&lt;ul&gt;&lt;li&gt;Chelsea Manning is the face of a new VPN… [+5126 chars]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/for-prime-day-the-best-security-software-for-a-mac-is-on-sale-at-60-off-2000507531</t>
+          <t>https://www.businessinsider.com/cybersecurity-chelsea-manning-avoid-google-microsoft-favor-apple-vpn-privacy-2024-10</t>
         </is>
       </c>
     </row>
@@ -261,701 +262,702 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chelsea Manning avoids Google and Microsoft — and says she prefers Apple products for cybersecurity</t>
+          <t>I'm a former FBI agent and cybersecurity expert. Here are 5 things everyone should do to outsmart online criminals.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Katherine Tangalakis-Lippert</t>
+          <t>Hannah Abraham</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chelsea Manning is the face of a new VPN called Nym. She's also speaking out about cybersecurity in general, saying she deems Apple products the best.</t>
+          <t>A former FBI agent and cybersecurity expert shares key internet safety tips to protect against financial crimes, deepfakes, and online threats.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chelsea Manning says she thinks Apple has the best security among Big Tech companies — and says she avoids Microsoft and Google products.Getty Images
-&lt;ul&gt;&lt;li&gt;Chelsea Manning is the face of a new VPN… [+5126 chars]</t>
+          <t>Some safety measures are so simple we sometimes forget to take them at all, says former FBI agent Jason Hogg.Jason Hogg
+&lt;ul&gt;&lt;li&gt;Former FBI agent Jason Hogg shared five tips to stay safe online.&lt;/li&gt;… [+4264 chars]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/cybersecurity-chelsea-manning-avoid-google-microsoft-favor-apple-vpn-privacy-2024-10</t>
+          <t>https://www.businessinsider.com/former-fbi-agent-shares-5-precautions-he-would-take-online-2024-9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I've built a career in ethical hacking. Online scams are getting much, much worse — and AI isn't helping.</t>
+          <t>Apple Fixes Bugs in macOS Sequoia That Broke Some Cybersecurity Tools</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Emma Magnus</t>
+          <t>msmash</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Laura Kankaala, whose worked in cybersecurity for 10 years, said that online scams are becoming more complex and easier for criminals to execute.</t>
+          <t>Apple has rolled out an update to macOS 15 Sequoia that addresses compatibility issues with third-party security software that emerged in the initial release. The update, macOS 15.0.1, aims to resolve problems affecting products from CrowdStrike and Microsoft…</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Laura Kankaala, head of threat at a Finnish cybersecurity firm, has been working in the industry for 10 years.Courtesy of F-Secure
-&lt;ul&gt;&lt;li&gt;Laura Kankaala started as a white-hat hacker and now works … [+5845 chars]</t>
+          <t>The Fine Print: The following comments are owned by whoever posted them. We are not responsible for them in any way.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/hacker-online-scams-getting-worse-ai-cybersecurity-expert-2024-9</t>
+          <t>https://apple.slashdot.org/story/24/10/07/1847229/apple-fixes-bugs-in-macos-sequoia-that-broke-some-cybersecurity-tools</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I'm a former FBI agent and cybersecurity expert. Here are 5 things everyone should do to outsmart online criminals.</t>
+          <t>Fake Google Meet Conference Errors Push Infostealing Malware</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hannah Abraham</t>
+          <t>BeauHD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A former FBI agent and cybersecurity expert shares key internet safety tips to protect against financial crimes, deepfakes, and online threats.</t>
+          <t>An anonymous reader quotes a report from BleepingComputer: A new ClickFix campaign is luring users to fraudulent Google Meet conference pages showing fake connectivity errors that deliver info-stealing malware for Windows and macOS operating systems. ClickFix…</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Some safety measures are so simple we sometimes forget to take them at all, says former FBI agent Jason Hogg.Jason Hogg
-&lt;ul&gt;&lt;li&gt;Former FBI agent Jason Hogg shared five tips to stay safe online.&lt;/li&gt;… [+4264 chars]</t>
+          <t>A new ClickFix campaign is luring users to fraudulent Google Meet conference pages showing fake connectivity errors that deliver info-stealing malware for Windows and macOS operating systems. ClickFi… [+1159 chars]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/former-fbi-agent-shares-5-precautions-he-would-take-online-2024-9</t>
+          <t>https://it.slashdot.org/story/24/10/17/2156214/fake-google-meet-conference-errors-push-infostealing-malware</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>Wired</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple Fixes Bugs in macOS Sequoia That Broke Some Cybersecurity Tools</t>
+          <t>Hacker Charged With Seeking to Kill Using Cyberattacks on Hospitals</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>msmash</t>
+          <t>Andy Greenberg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Apple has rolled out an update to macOS 15 Sequoia that addresses compatibility issues with third-party security software that emerged in the initial release. The update, macOS 15.0.1, aims to resolve problems affecting products from CrowdStrike and Microsoft…</t>
+          <t>The US has accused two brothers of being part of the hacker group Anonymous Sudan, which allegedly went on a wild cyberattack spree that hit thousands of targets—and, for one of the two men, even put lives at risk.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The Fine Print: The following comments are owned by whoever posted them. We are not responsible for them in any way.</t>
+          <t>We will continue targeting ChatGPT until the genocide supporter, Tal Broda, is fired and ChatGPT stops having dehumanizing views of Palestinians," Anonymous Sudan responded in a Telegram post explain… [+3061 chars]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://apple.slashdot.org/story/24/10/07/1847229/apple-fixes-bugs-in-macos-sequoia-that-broke-some-cybersecurity-tools</t>
+          <t>https://www.wired.com/story/anonymous-sudan-ddos-indictment-takedown/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VentureBeat</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Building and securing a governed AI infrastructure for the future</t>
+          <t>An Exploit in Qualcomm Chips Let Hackers Potentially Access High-End Android Phones</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Louis Columbus</t>
+          <t>Kyle Barr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Getting compliance, cybersecurity, and governance orchestrated as part of an AI infrastructure helps AI teams find roadblocks.</t>
+          <t>Qualcomm chips found in Samsung, Motorola, OnePlus, and more brands’ phones could have been exploited, but we don’t know to what extent.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Join our daily and weekly newsletters for the latest updates and exclusive content on industry-leading AI coverage. Learn More
-Unlocking AIs potential to deliver greater efficiency, cost savings and… [+8941 chars]</t>
+          <t>Qualcomm offered a few sparse details about a security exploit hackers could have used on a multitude of phones and tablets from major device makers. The issue has been patched, but we still dont hav… [+2047 chars]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://venturebeat.com/security/building-and-securing-a-governed-ai-infrastructure-for-the-future/</t>
+          <t>https://gizmodo.com/an-exploit-in-qualcomm-chips-let-hackers-potentially-access-high-end-android-phones-2000510313</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fake Google Meet Conference Errors Push Infostealing Malware</t>
+          <t>These are the 7 most devastating data breaches. Now what?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BeauHD</t>
+          <t>Kurt Knutsson, CyberGuy Report</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>An anonymous reader quotes a report from BleepingComputer: A new ClickFix campaign is luring users to fraudulent Google Meet conference pages showing fake connectivity errors that deliver info-stealing malware for Windows and macOS operating systems. ClickFix…</t>
+          <t>Kurt “CyberGuy" Knutsson: Data breaches in 2024 exposed info of millions, stressing the need for better cybersecurity.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A new ClickFix campaign is luring users to fraudulent Google Meet conference pages showing fake connectivity errors that deliver info-stealing malware for Windows and macOS operating systems. ClickFi… [+1159 chars]</t>
+          <t>In recent months, we've witnessed a shocking wave of data breaches that have put the personal information of millions at risk. With our online lives becoming more exposed than ever, it's essential to… [+14875 chars]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://it.slashdot.org/story/24/10/17/2156214/fake-google-meet-conference-errors-push-infostealing-malware</t>
+          <t>https://www.foxnews.com/tech/7-most-devastating-data-breaches-now-what</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wired</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hacker Charged With Seeking to Kill Using Cyberattacks on Hospitals</t>
+          <t>Deception in democracy: Beware the most common types of election-related scams</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Andy Greenberg</t>
+          <t>Kurt Knutsson, CyberGuy Report</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The US has accused two brothers of being part of the hacker group Anonymous Sudan, which allegedly went on a wild cyberattack spree that hit thousands of targets—and, for one of the two men, even put lives at risk.</t>
+          <t>Cybersecurity risks are ramping up as the Nov. 5 U.S. general election approaches. Social media and the internet are used to spread propaganda.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>We will continue targeting ChatGPT until the genocide supporter, Tal Broda, is fired and ChatGPT stops having dehumanizing views of Palestinians," Anonymous Sudan responded in a Telegram post explain… [+3061 chars]</t>
+          <t>Elections are one of the most crucial parts of any democracy, and unfortunately that also means bad actors try to twist things for their own gain. 
+With the U.S. general elections just around the co… [+11085 chars]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/anonymous-sudan-ddos-indictment-takedown/</t>
+          <t>https://www.foxnews.com/tech/deception-democracy-beware-most-common-types-election-related-scams</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Android Police</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>An Exploit in Qualcomm Chips Let Hackers Potentially Access High-End Android Phones</t>
+          <t>T-Mobile just got hit with a $15MM reminder from the FCC to not get hacked as often</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kyle Barr</t>
+          <t>Anurag Singh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Qualcomm chips found in Samsung, Motorola, OnePlus, and more brands’ phones could have been exploited, but we don’t know to what extent.</t>
+          <t>The same amount has to be invested in cybersecurity</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Qualcomm offered a few sparse details about a security exploit hackers could have used on a multitude of phones and tablets from major device makers. The issue has been patched, but we still dont hav… [+2047 chars]</t>
+          <t>Key Takeaways
+&lt;ul&gt;&lt;li&gt; T-Mobile is investing $15.75MM in cybersecurity upgrades as part of a settlement with the FCC, also paying the same amount in civil penalties. &lt;/li&gt;&lt;li&gt; The settlement follows… [+2848 chars]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/an-exploit-in-qualcomm-chips-let-hackers-potentially-access-high-end-android-phones-2000510313</t>
+          <t>https://www.androidpolice.com/fcc-forcing-t-mobile-stop-getting-hacked/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ABC News</t>
+          <t>Wired</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CrowdStrike executive apologizes to Congress for July global tech outage</t>
+          <t>What Google's U-Turn on Third-Party Cookies Means for Chrome Privacy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The Associated Press</t>
+          <t>Kate O'Flaherty</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>An executive at cybersecurity company CrowdStrike apologized in testimony to Congress for sparking a global technology outage over the summer</t>
+          <t>Earlier this year, Google ditched its plans to abolish support for third-party cookies in its Chrome browser. While privacy advocates called foul, the implications for users is not so clear cut.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WASHINGTON -- An executive at cybersecurity company CrowdStrike apologized in testimony to Congress for sparking a global technology outage over the summer.
-We let our customers down, said Adam Meye… [+890 chars]</t>
+          <t>The apparent death of cookies also wont matter much to Google, which has a ton of data from multiple services in addition to Chrome and can target people without cookies.
+According to Google's 2023 … [+3729 chars]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://abcnews.go.com/US/wireStory/crowdstrike-executive-apologizes-congress-july-global-tech-outage-114077758</t>
+          <t>https://www.wired.com/story/google-chrome-third-party-cookies-privacy-rollback/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fox News</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>These are the 7 most devastating data breaches. Now what?</t>
+          <t>OpenAI Says China-Linked Group Tried to Phish Its Employees</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kurt Knutsson, CyberGuy Report</t>
+          <t>msmash</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kurt “CyberGuy" Knutsson: Data breaches in 2024 exposed info of millions, stressing the need for better cybersecurity.</t>
+          <t>OpenAI said a group with apparent ties to China tried to carry out a phishing attack on its employees, reigniting concerns that bad actors in Beijing want to steal sensitive information from top US artificial intelligence companies. From a report: The AI star…</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>In recent months, we've witnessed a shocking wave of data breaches that have put the personal information of millions at risk. With our online lives becoming more exposed than ever, it's essential to… [+14875 chars]</t>
+          <t>The AI startup said Wednesday that a suspected China-based group called SweetSpecter posed as a user of OpenAI's chatbot ChatGPT earlier this year and sent customer support emails to staff. The email… [+692 chars]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.foxnews.com/tech/7-most-devastating-data-breaches-now-what</t>
+          <t>https://it.slashdot.org/story/24/10/09/1515226/openai-says-china-linked-group-tried-to-phish-its-employees</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fox News</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Deception in democracy: Beware the most common types of election-related scams</t>
+          <t>Stay Safe in a Dangerous World: Bitdefender Unleashes a Black Friday Deal on Its Antivirus Solutions (50% Off)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kurt Knutsson, CyberGuy Report</t>
+          <t>Gizmodo Deals</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cybersecurity risks are ramping up as the Nov. 5 U.S. general election approaches. Social media and the internet are used to spread propaganda.</t>
+          <t>In a world where cyber threats are on the rise, Bitdefender's rare offers present a timely opportunity to bolster your digital security.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Elections are one of the most crucial parts of any democracy, and unfortunately that also means bad actors try to twist things for their own gain. 
-With the U.S. general elections just around the co… [+11085 chars]</t>
+          <t>Bitdefender is a leading name in the cybersecurity industry with over 400 million users worldwide and it is currently running exciting promotions on its antivirus solutions. These offers present an e… [+3892 chars]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.foxnews.com/tech/deception-democracy-beware-most-common-types-election-related-scams</t>
+          <t>https://gizmodo.com/stay-safe-in-a-dangerous-world-bitdefender-unleashes-a-black-friday-deal-on-its-antivirus-solutions-50-off-2000505535</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Android Police</t>
+          <t>Android Central</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T-Mobile just got hit with a $15MM reminder from the FCC to not get hacked as often</t>
+          <t>Google wants users SAIF as a risk assessment rolls in to identify security threats</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Anurag Singh</t>
+          <t>nickodiaz@sbcglobal.net (Nickolas Diaz)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The same amount has to be invested in cybersecurity</t>
+          <t>Google always wanted to set clear "security standards" with SAIF, and this new questionnaire might help.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Key Takeaways
-&lt;ul&gt;&lt;li&gt; T-Mobile is investing $15.75MM in cybersecurity upgrades as part of a settlement with the FCC, also paying the same amount in civil penalties. &lt;/li&gt;&lt;li&gt; The settlement follows… [+2848 chars]</t>
+          <t>What you need to know
+&lt;ul&gt;&lt;li&gt;Google highlighted the rollout of its new SAIF Risk Assessment questionnaire for AI system creators.&lt;/li&gt;&lt;li&gt;The assessment will ask a series of in-depth questions abou… [+3224 chars]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.androidpolice.com/fcc-forcing-t-mobile-stop-getting-hacked/</t>
+          <t>https://www.androidcentral.com/apps-software/google-saif-risk-assessment-security-threats-details</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wired</t>
+          <t>BBC News</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What Google's U-Turn on Third-Party Cookies Means for Chrome Privacy</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Kate O'Flaherty</t>
-        </is>
-      </c>
+          <t>Microsoft re-launches ‘privacy nightmare’ AI screenshot tool</t>
+        </is>
+      </c>
+      <c r="C19"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Earlier this year, Google ditched its plans to abolish support for third-party cookies in its Chrome browser. While privacy advocates called foul, the implications for users is not so clear cut.</t>
+          <t>It says it has listened to concerns about the tool, which continuously screenshots online activity.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The apparent death of cookies also wont matter much to Google, which has a ton of data from multiple services in addition to Chrome and can target people without cookies.
-According to Google's 2023 … [+3729 chars]</t>
+          <t>Microsoft says it has listened to feedback following a privacy row over a new tool which takes regular screenshots of users online activity.
+It was labelled a potential privacy nightmare by critics … [+2916 chars]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/google-chrome-third-party-cookies-privacy-rollback/</t>
+          <t>https://www.bbc.com/news/articles/c869glx8endo</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>heise online</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Saga of a Tech Exec’s Sunken Yacht Just Got a Lot More Interesting</t>
+          <t>heise-Angebot: Für eine stabile Zukunft Ihrer IT: Besuchen Sie den IT Summit by heise</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lucas Ropek</t>
+          <t>Alexander Neumann</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Super-encrypted hard drives, water tight safes, and classified documents have entered the picture.</t>
+          <t>Am 18. und 19. November kommen in München IT-Leiter und Administratoren zusammen, um sich über Themen wie KI, Regulierungen und Cybersecurity auszutauschen.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A little over a month ago, the 184-foot yacht belonging to tech millionaire Mike Lynch abruptly sank. The boat had been anchored off the coast of Sicily, where it had been parked for a night of party… [+3428 chars]</t>
+          <t>Am 18. und 19. November 2024 findet in München die Erstauflage des IT Summit by heise statt. Die Konferenz richtet sich an IT- und Rechenzentrumsleiter aus Mittelstand und Konzernen, IT-Security-, Ne… [+3564 chars]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/the-saga-of-a-tech-execs-sunken-yacht-just-got-a-lot-more-interesting-2000503336</t>
+          <t>https://www.heise.de/news/Fuer-eine-stabile-Zukunft-Ihrer-IT-Besuchen-Sie-den-IT-Summit-by-heise-9977441.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>ABC News</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kaspersky Defends Stealth Swap of Antivirus Software on US Computers</t>
+          <t>Chinese hackers believed to have targeted Trump, Vance cellphones: Sources</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>msmash</t>
+          <t>Luke Barr, Katherine Faulders, John Santucci</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cybersecurity firm Kaspersky has defended its decision to automatically replace its antivirus software on U.S. customers' computers with UltraAV, a product from American company Pango, without explicit user consent. The forced switch, affecting nearly one mil…</t>
+          <t>Chinese hackers believed to have targeted Trump, Vance cell phones, according to reports.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cybersecurity firm Kaspersky has defended its decision to automatically replace its antivirus software on U.S. customers' computers with UltraAV, a product from American company Pango, without explic… [+806 chars]</t>
+          <t>Chinese hackers are believed to have targeted cellphones used by former President Donald Trump and his running mate, Sen. JD Vance, according to sources familiar with the matter.
+The Trump/Vance cam… [+1445 chars]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://it.slashdot.org/story/24/09/26/1825249/kaspersky-defends-stealth-swap-of-antivirus-software-on-us-computers</t>
+          <t>https://abcnews.go.com/Politics/chinese-hackers-believed-targeted-trump-vance-cell-phones/story?id=115158629</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OpenAI Says China-Linked Group Tried to Phish Its Employees</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>msmash</t>
-        </is>
-      </c>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="C22"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OpenAI said a group with apparent ties to China tried to carry out a phishing attack on its employees, reigniting concerns that bad actors in Beijing want to steal sensitive information from top US artificial intelligence companies. From a report: The AI star…</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The AI startup said Wednesday that a suspected China-based group called SweetSpecter posed as a user of OpenAI's chatbot ChatGPT earlier this year and sent customer support emails to staff. The email… [+692 chars]</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://it.slashdot.org/story/24/10/09/1515226/openai-says-china-linked-group-tried-to-phish-its-employees</t>
+          <t>https://removed.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stay Safe in a Dangerous World: Bitdefender Unleashes a Black Friday Deal on Its Antivirus Solutions (50% Off)</t>
+          <t>Robot Vacuums Hacked To Shout Slurs At Their Owners</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gizmodo Deals</t>
+          <t>BeauHD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>In a world where cyber threats are on the rise, Bitdefender's rare offers present a timely opportunity to bolster your digital security.</t>
+          <t>Ecovacs robot vacuums have been hacked across the U.S. to shout racial slurs at unsuspecting people. VICE News reports: The issue is specifically with Ecovacs' Deebot X2 model. The hackers gained control of the devices and used the onboard speakers to blast r…</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bitdefender is a leading name in the cybersecurity industry with over 400 million users worldwide and it is currently running exciting promotions on its antivirus solutions. These offers present an e… [+3892 chars]</t>
+          <t>The issue is specifically with Ecovacs' Deebot X2 model. The hackers gained control of the devices and used the onboard speakers to blast racial slurs at anyone within earshot. One such person was a … [+973 chars]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/stay-safe-in-a-dangerous-world-bitdefender-unleashes-a-black-friday-deal-on-its-antivirus-solutions-50-off-2000505535</t>
+          <t>https://hardware.slashdot.org/story/24/10/11/2011249/robot-vacuums-hacked-to-shout-slurs-at-their-owners</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Android Central</t>
+          <t>Yahoo Entertainment</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Google wants users SAIF as a risk assessment rolls in to identify security threats</t>
+          <t>You'll soon be able to safely and easily move your passkeys between password managers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nickodiaz@sbcglobal.net (Nickolas Diaz)</t>
+          <t>Igor Bonifacic</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Google always wanted to set clear "security standards" with SAIF, and this new questionnaire might help.</t>
+          <t>By now, most people know passkeys offer a better way to protect their online credentials than passwords. Nearly every tech company of note, including Apple, Google and Microsoft, supports the protocol. Moreover, despite a slow start, adoption has dramatically…</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>What you need to know
-&lt;ul&gt;&lt;li&gt;Google highlighted the rollout of its new SAIF Risk Assessment questionnaire for AI system creators.&lt;/li&gt;&lt;li&gt;The assessment will ask a series of in-depth questions abou… [+3224 chars]</t>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+678 chars]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.androidcentral.com/apps-software/google-saif-risk-assessment-security-threats-details</t>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_c9430024-036e-4c1e-8e93-fb6ae347f946</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BBC News</t>
+          <t>Yahoo Entertainment</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Microsoft re-launches ‘privacy nightmare’ AI screenshot tool</t>
-        </is>
-      </c>
-      <c r="C25"/>
+          <t>Intel stock under pressure amid plans to lay off 1,300 employees</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Julie Hyman</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>It says it has listened to concerns about the tool, which continuously screenshots online activity.</t>
+          <t>Shares of Intel (INTC) are under pressure after the company announced it will be laying off roughly 1,300 employees. This comes alongside news from China...</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Microsoft says it has listened to feedback following a privacy row over a new tool which takes regular screenshots of users online activity.
-It was labelled a potential privacy nightmare by critics … [+2916 chars]</t>
+          <t>Shares of Intel (INTC) are under pressure after the company announced it will be laying off roughly 1,300 employees. This comes alongside news from China that a cybersecurity group is calling for che… [+361 chars]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.bbc.com/news/articles/c869glx8endo</t>
+          <t>https://finance.yahoo.com/video/intel-stock-under-pressure-amid-204124943.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>Fast Company</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>heise-Angebot: Neue Konferenz von heise: Jetzt vom Early-Bird-Rabatt des IT Summit profitieren</t>
+          <t>Microsoft and the DOJ intercept this Russian hacking group’s spear phishing campaign</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Alexander Neumann</t>
+          <t>Associated Press</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Am 18. und 19. November kommen in München IT-Leiter und Administratoren zusammen, um sich über Themen wie KI, Regulierungen und Cybersecurity auszutauschen.</t>
+          <t>Russian hacking group Star Blizzard is targeting groups including American military contractors and the Department of Energy.
+A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists an…</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Am 18. und 19. November 2024 findet in München die erste Ausgabe des IT Summit by heise statt. Die Konferenz richtet sich vorrangig an IT-Leiter sowie Administratoren. Sie will dem Publikum wichtige … [+2953 chars]</t>
+          <t>A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists and former military and intelligence officials, Microsoft and U.S. au… [+2733 chars]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/Neue-Konferenz-von-heise-Jetzt-vom-Early-Bird-Rabatt-des-IT-Summit-profitieren-9952522.html</t>
+          <t>https://www.fastcompany.com/91203365/microsoft-doj-intercept-russian-hacking-groups-spear-phishing-campaign</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>heise-Angebot: Für eine stabile Zukunft Ihrer IT: Besuchen Sie den IT Summit by heise</t>
+          <t>Healthcare Services Group discloses 'cybersecurity incident' in SEC filing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alexander Neumann</t>
+          <t>Connor Jones</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Am 18. und 19. November kommen in München IT-Leiter und Administratoren zusammen, um sich über Themen wie KI, Regulierungen und Cybersecurity auszutauschen.</t>
+          <t>Laundry and dining provider still investigating cause and scope
+Healthcare Services Group (HSG) has disclosed "unauthorized activity within some of its systems" in a Securities and Exchange Commission (SEC) filing.…</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Am 18. und 19. November 2024 findet in München die Erstauflage des IT Summit by heise statt. Die Konferenz richtet sich an IT- und Rechenzentrumsleiter aus Mittelstand und Konzernen, IT-Security-, Ne… [+3564 chars]</t>
+          <t>Healthcare Services Group (HSG) has disclosed "unauthorized activity within some of its systems" in a Securities and Exchange Commission (SEC) filing.
+The company, which provides housekeeping, laund… [+2022 chars]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/Fuer-eine-stabile-Zukunft-Ihrer-IT-Besuchen-Sie-den-IT-Summit-by-heise-9977441.html</t>
+          <t>https://www.theregister.com/2024/10/18/healthcare_services_group_attack/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[Removed]</t>
-        </is>
-      </c>
-      <c r="C28"/>
+          <t>Extracting vendor promises won't fix cybersecurity. Extracting teeth might</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rupert Goodwins</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>One branch of tech has learned to work together to solve the near-impossible. Now it's our turn
+Opinion To say cybersecurity is mostly very good is like saying Boeing's Starliner parts mostly work – true, but you're still going to be sleeping in the office. M…</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>Opinion To say cybersecurity is mostly very good is like saying Boeing's Starliner parts mostly work true, but you're still going to be sleeping in the office. Moreover, it's questionable whether eit… [+4921 chars]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://removed.com</t>
+          <t>https://www.theregister.com/2024/09/30/security_opinion/</t>
         </is>
       </c>
     </row>
@@ -967,542 +969,542 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Robot Vacuums Hacked To Shout Slurs At Their Owners</t>
+          <t>FBI Investigates Claims China Tried To Hack Donald Trump's Phone</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BeauHD</t>
+          <t>msmash</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ecovacs robot vacuums have been hacked across the U.S. to shout racial slurs at unsuspecting people. VICE News reports: The issue is specifically with Ecovacs' Deebot X2 model. The hackers gained control of the devices and used the onboard speakers to blast r…</t>
+          <t>Joe Biden's administration is investigating alleged Chinese efforts to hack US telecoms infrastructure amid reports hackers had targeted the phones of former president Donald Trump and his running mate JD Vance. Financial Times: The FBI and the Cybersecurity …</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The issue is specifically with Ecovacs' Deebot X2 model. The hackers gained control of the devices and used the onboard speakers to blast racial slurs at anyone within earshot. One such person was a … [+973 chars]</t>
+          <t>Joe Biden's administration is investigating alleged Chinese efforts to hack US telecoms infrastructure amid reports hackers had targeted the phones of former president Donald Trump and his running ma… [+1748 chars]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://hardware.slashdot.org/story/24/10/11/2011249/robot-vacuums-hacked-to-shout-slurs-at-their-owners</t>
+          <t>https://news.slashdot.org/story/24/10/25/2055241/fbi-investigates-claims-china-tried-to-hack-donald-trumps-phone</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Yahoo Entertainment</t>
+          <t>Techdirt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>You'll soon be able to safely and easily move your passkeys between password managers</t>
+          <t>Daily Deal: Cybersecurity Projects Bundle</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Igor Bonifacic</t>
+          <t>Gretchen Heckmann</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>By now, most people know passkeys offer a better way to protect their online credentials than passwords. Nearly every tech company of note, including Apple, Google and Microsoft, supports the protocol. Moreover, despite a slow start, adoption has dramatically…</t>
+          <t>The Cybersecurity Projects Bundle offers a hands-on program featuring five real-world cybersecurity projects, totaling 35 tasks. Participants start with an introductory video for each project, detailing objectives and requirements, followed by task completion…</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+678 chars]</t>
+          <t>from the good-deals-on-cool-stuff dept
+The Cybersecurity Projects Bundle offers a hands-on program featuring five real-world cybersecurity projects, totaling 35 tasks. Participants start with an int… [+708 chars]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_c9430024-036e-4c1e-8e93-fb6ae347f946</t>
+          <t>https://www.techdirt.com/2024/10/09/daily-deal-cybersecurity-projects-bundle-2/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Yahoo Entertainment</t>
+          <t>CNET</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Intel stock under pressure amid plans to lay off 1,300 employees</t>
+          <t>Lock Down Your Data: Why Every Business Needs a Password Manager Today</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Julie Hyman</t>
+          <t>by CNET Paid Content Studio</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Shares of Intel (INTC) are under pressure after the company announced it will be laying off roughly 1,300 employees. This comes alongside news from China...</t>
+          <t>Comprehensive password management across an entire organization helps your company defend against cybersecurity threats. See how with CNET's highest-ranked overall password manager.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Shares of Intel (INTC) are under pressure after the company announced it will be laying off roughly 1,300 employees. This comes alongside news from China that a cybersecurity group is calling for che… [+361 chars]</t>
+          <t>Cybersecurity attacks are rapidly increasing across industries, driven by weak or reused passwords that open doors to potential threats. A recent survey found that over 90 percent of employees reuse … [+6501 chars]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/video/intel-stock-under-pressure-amid-204124943.html</t>
+          <t>https://www.cnet.com/paid-content/news/bitwarden-lock-down-your-data-why-every-business-needs-a-password-manager-today-sso-password-breaches/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fast Company</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Microsoft and the DOJ intercept this Russian hacking group’s spear phishing campaign</t>
+          <t>Prime Day: Amazon Accidentally Reveals Offers, Here Are the 10 Best Deals This Sunday Morning</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Associated Press</t>
+          <t>Gizmodo Deals</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Russian hacking group Star Blizzard is targeting groups including American military contractors and the Department of Energy.
-A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists an…</t>
+          <t>Amazon is launching its Prime Day deals early and allows non-Prime members to take advantage of the discounts as well.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists and former military and intelligence officials, Microsoft and U.S. au… [+2733 chars]</t>
+          <t>Amazon’s Prime (Big Deal) Days is set for October 8-9, 2024 and it is shaping up to be an exciting shopping event for consumers worldwide. While the official event is still a few days away, Amazon ha… [+3968 chars]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.fastcompany.com/91203365/microsoft-doj-intercept-russian-hacking-groups-spear-phishing-campaign</t>
+          <t>https://gizmodo.com/prime-day-amazon-accidentally-reveals-offers-here-are-the-10-best-deals-this-sunday-morning-2000507941</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Healthcare Services Group discloses 'cybersecurity incident' in SEC filing</t>
+          <t>Scarlett Johansson, Kylie Jenner and Taylor Swift Top List of Celebrities Used for AI Scams</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Connor Jones</t>
+          <t>Matt Novak</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Laundry and dining provider still investigating cause and scope
-Healthcare Services Group (HSG) has disclosed "unauthorized activity within some of its systems" in a Securities and Exchange Commission (SEC) filing.…</t>
+          <t>From selling crypto to miracle cures, deepfake celebrity ads are everywhere.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Healthcare Services Group (HSG) has disclosed "unauthorized activity within some of its systems" in a Securities and Exchange Commission (SEC) filing.
-The company, which provides housekeeping, laund… [+2022 chars]</t>
+          <t>You’re probably seen the ridiculous videos on social media. There’s a celebritymaybe it’s Sydney Sweeney or Tom Hankstalking directly to the camera about some product, but something seems a bit off. … [+4647 chars]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/18/healthcare_services_group_attack/</t>
+          <t>https://gizmodo.com/scarlett-johansson-kylie-jenner-and-taylor-swift-top-list-of-celebrities-used-for-ai-scams-2000509158</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Gizmodo.com</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Extracting vendor promises won't fix cybersecurity. Extracting teeth might</t>
+          <t>OpenAI Raises Billions While Pledging to Work With ‘U.S. and Allied Governments’</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rupert Goodwins</t>
+          <t>Matt Novak</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>One branch of tech has learned to work together to solve the near-impossible. Now it's our turn
-Opinion To say cybersecurity is mostly very good is like saying Boeing's Starliner parts mostly work – true, but you're still going to be sleeping in the office. M…</t>
+          <t>OpenAI is now valued at $157 billion, a close read of OpenAI's statement might provide some hints about the future.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Opinion To say cybersecurity is mostly very good is like saying Boeing's Starliner parts mostly work true, but you're still going to be sleeping in the office. Moreover, it's questionable whether eit… [+4921 chars]</t>
+          <t>OpenAI has raised $6.6 billion at a $157 billion post-money valuation, according to a statement the company posted online Wednesday. The funding round was led by Thrive Capital, which invested $1.25 … [+4379 chars]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/09/30/security_opinion/</t>
+          <t>https://gizmodo.com/openai-raises-billions-while-pledging-to-work-with-u-s-and-allied-governments-2000506556</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Techdirt</t>
+          <t>VentureBeat</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Daily Deal: Cybersecurity Projects Bundle</t>
+          <t>Nvidia makes 7 tech announcements in Washington D.C. as antitrust looms</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gretchen Heckmann</t>
+          <t>Dean Takahashi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The Cybersecurity Projects Bundle offers a hands-on program featuring five real-world cybersecurity projects, totaling 35 tasks. Participants start with an introductory video for each project, detailing objectives and requirements, followed by task completion…</t>
+          <t>Nvidia showed tech in the nation's capital at its AI Summit to help educate the government at a time when Nvidia is facing an antitrust probe.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>from the good-deals-on-cool-stuff dept
-The Cybersecurity Projects Bundle offers a hands-on program featuring five real-world cybersecurity projects, totaling 35 tasks. Participants start with an int… [+708 chars]</t>
+          <t>Join our daily and weekly newsletters for the latest updates and exclusive content on industry-leading AI coverage. Learn More
+Nvidia showed off its technology in Washington, D.C. today at its AI Su… [+13734 chars]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.techdirt.com/2024/10/09/daily-deal-cybersecurity-projects-bundle-2/</t>
+          <t>https://venturebeat.com/ai/nvidia-showcases-tech-in-washington-d-c-as-antitrust-looms/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CNET</t>
+          <t>NPR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lock Down Your Data: Why Every Business Needs a Password Manager Today</t>
+          <t>Russia is behind fake video of ballots being destroyed, U.S. officials say</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>by CNET Paid Content Studio</t>
+          <t>Shannon Bond</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Comprehensive password management across an entire organization helps your company defend against cybersecurity threats. See how with CNET's highest-ranked overall password manager.</t>
+          <t>Federal intelligence officials and the FBI say Russia is behind the video, which has spread widely on social media, including Elon Musk’s X.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cybersecurity attacks are rapidly increasing across industries, driven by weak or reused passwords that open doors to potential threats. A recent survey found that over 90 percent of employees reuse … [+6501 chars]</t>
+          <t>Russia manufactured and spread a fake video that purports to show someone destroying ballots marked for former President Donald Trump in Pennsylvania, U.S. officials said on Friday.
+The phony video … [+2468 chars]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/paid-content/news/bitwarden-lock-down-your-data-why-every-business-needs-a-password-manager-today-sso-password-breaches/</t>
+          <t>https://www.npr.org/2024/10/25/nx-s1-5165593/russia-ballot-video-bucks-county</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prime Day: Amazon Accidentally Reveals Offers, Here Are the 10 Best Deals This Sunday Morning</t>
+          <t>U.S. Wiretap Systems Targeted in China-Linked Hack</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gizmodo Deals</t>
+          <t>EditorDavid</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amazon is launching its Prime Day deals early and allows non-Prime members to take advantage of the discounts as well.</t>
+          <t>"A cyberattack tied to the Chinese government penetrated the networks of a swath of U.S. broadband providers," reports the Wall Street Journal, "potentially accessing information from systems the federal government uses for court-authorized network wiretappin…</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Amazon’s Prime (Big Deal) Days is set for October 8-9, 2024 and it is shaping up to be an exciting shopping event for consumers worldwide. While the official event is still a few days away, Amazon ha… [+3968 chars]</t>
+          <t>"A cyberattack tied to the Chinese government penetrated the networks of a swath of U.S. broadband providers," reports the Wall Street Journal, "potentially accessing information from systems the fed… [+2535 chars]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/prime-day-amazon-accidentally-reveals-offers-here-are-the-10-best-deals-this-sunday-morning-2000507941</t>
+          <t>https://slashdot.org/story/24/10/05/2118247/us-wiretap-systems-targeted-in-china-linked-hack</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Scarlett Johansson, Kylie Jenner and Taylor Swift Top List of Celebrities Used for AI Scams</t>
+          <t>UK Nuclear Site's Clean-Up Costs Rise To £136 Billion</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Matt Novak</t>
+          <t>EditorDavid</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>From selling crypto to miracle cures, deepfake celebrity ads are everywhere.</t>
+          <t>The cost of cleaning up the U.K.'s largest nuclear site, "is expected to spiral to £136 billion" (about $176 billion), according to the Guardian, creating tension with the country's public-spending watchdog. 
+Projects to fix the state-owned buildings with ha…</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>You’re probably seen the ridiculous videos on social media. There’s a celebritymaybe it’s Sydney Sweeney or Tom Hankstalking directly to the camera about some product, but something seems a bit off. … [+4647 chars]</t>
+          <t>The cost of cleaning up the U.K.'s largest nuclear site, "is expected to spiral to £136 billion" (about $176 billion), according to the Guardian, creating tension with the country's public-spending w… [+2260 chars]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/scarlett-johansson-kylie-jenner-and-taylor-swift-top-list-of-celebrities-used-for-ai-scams-2000509158</t>
+          <t>https://news.slashdot.org/story/24/10/26/0239228/uk-nuclear-sites-clean-up-costs-rise-to-136-billion</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gizmodo.com</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OpenAI Raises Billions While Pledging to Work With ‘U.S. and Allied Governments’</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Matt Novak</t>
-        </is>
-      </c>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="C39"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OpenAI is now valued at $157 billion, a close read of OpenAI's statement might provide some hints about the future.</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OpenAI has raised $6.6 billion at a $157 billion post-money valuation, according to a statement the company posted online Wednesday. The funding round was led by Thrive Capital, which invested $1.25 … [+4379 chars]</t>
+          <t>[Removed]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://gizmodo.com/openai-raises-billions-while-pledging-to-work-with-u-s-and-allied-governments-2000506556</t>
+          <t>https://removed.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VentureBeat</t>
+          <t>ABC News</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nvidia makes 7 tech announcements in Washington D.C. as antitrust looms</t>
+          <t>The US and Microsoft disrupt a Russian hacking group targeting American officials and nonprofits</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dean Takahashi</t>
+          <t>DAVID KLEPPER Associated Press</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nvidia showed tech in the nation's capital at its AI Summit to help educate the government at a time when Nvidia is facing an antitrust probe.</t>
+          <t>U.S. authorities and Microsoft say hackers linked to Russian intelligence targeted dozens of former military and intelligence officials, journalists and civil society groups with a sophisticated campaign designed to steal information</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Join our daily and weekly newsletters for the latest updates and exclusive content on industry-leading AI coverage. Learn More
-Nvidia showed off its technology in Washington, D.C. today at its AI Su… [+13734 chars]</t>
+          <t>WASHINGTON -- A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists and former military and intelligence officials, Microso… [+2760 chars]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://venturebeat.com/ai/nvidia-showcases-tech-in-washington-d-c-as-antitrust-looms/</t>
+          <t>https://abcnews.go.com/US/wireStory/us-microsoft-disrupt-russian-hacking-group-targeting-american-114470121</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>Digital Trends</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>U.S. Wiretap Systems Targeted in China-Linked Hack</t>
+          <t>Microsoft Defender review: Is Windows default antivirus safe enough?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EditorDavid</t>
+          <t>Alan Truly</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>"A cyberattack tied to the Chinese government penetrated the networks of a swath of U.S. broadband providers," reports the Wall Street Journal, "potentially accessing information from systems the federal government uses for court-authorized network wiretappin…</t>
+          <t>I reviewed Microsoft Defender to find out how well the free antivirus software included with Windows protects your computer and your personal data.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>"A cyberattack tied to the Chinese government penetrated the networks of a swath of U.S. broadband providers," reports the Wall Street Journal, "potentially accessing information from systems the fed… [+2535 chars]</t>
+          <t>It’s clear that everyone needs antivirus protection, and Microsoft Defender is the first line of defense that comes with every Windows PC. I’ve reviewed the best third-party antivirus software availa… [+6696 chars]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://slashdot.org/story/24/10/05/2118247/us-wiretap-systems-targeted-in-china-linked-hack</t>
+          <t>https://www.digitaltrends.com/computing/microsoft-defender-review/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>Android Central</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[Removed]</t>
-        </is>
-      </c>
-      <c r="C42"/>
+          <t>Google Messages now has smarter detection to tackle tricky scam messages</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>techkritiko@gmail.com (Jay Bonggolto)</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>Google’s latest updates are geared to guard Android users from fake deliveries, job-offer scams, and other shady schemes using on-device AI.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[Removed]</t>
+          <t>What you need to know
+&lt;ul&gt;&lt;li&gt;Google’s Messages app now uses on-device AI to fight off spam, suspicious links, and other unwanted content.&lt;/li&gt;&lt;li&gt;If a potential scam is detected, Messages will eith… [+3027 chars]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://removed.com</t>
+          <t>https://www.androidcentral.com/apps-software/google-messages-now-has-smarter-detection-to-tackle-tricky-scam-messages</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ABC News</t>
+          <t>9to5Mac</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The US and Microsoft disrupt a Russian hacking group targeting American officials and nonprofits</t>
+          <t>iPhone Mirroring is currently a privacy and legal risk on work Macs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DAVID KLEPPER Associated Press</t>
+          <t>Ben Lovejoy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>U.S. authorities and Microsoft say hackers linked to Russian intelligence targeted dozens of former military and intelligence officials, journalists and civil society groups with a sophisticated campaign designed to steal information</t>
+          <t>One of the new features of iOS 18 and macOS Sequoia is iPhone Mirroring – but using this with a personal iPhone on a work Mac currently creates a privacy risk for employees, and a legal risk for businesses.
+The problem, as cybersecurity company Sevco disco…</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WASHINGTON -- A hacking group tied to Russian intelligence tried to worm its way into the systems of dozens of Western think tanks, journalists and former military and intelligence officials, Microso… [+2760 chars]</t>
+          <t>One of the new features of iOS 18 and macOS Sequoia is iPhone Mirroring but using this with a personal iPhone on a work Mac currently creates a privacy risk for employees, and a legal risk for busine… [+2554 chars]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://abcnews.go.com/US/wireStory/us-microsoft-disrupt-russian-hacking-group-targeting-american-114470121</t>
+          <t>https://9to5mac.com/2024/10/08/iphone-mirroring-is-currently-a-privacy-and-legal-risk-on-work-macs/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Digital Trends</t>
+          <t>CNET</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Microsoft Defender review: Is Windows default antivirus safe enough?</t>
+          <t>Political Campaign Texts Probably Aren't Scams, But They Are Spam</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alan Truly</t>
+          <t>Bree Fowler</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>I reviewed Microsoft Defender to find out how well the free antivirus software included with Windows protects your computer and your personal data.</t>
+          <t>Texts from campaigns and PACs have us doing a lot of deleting and blocking. Here's what you need to know.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>It’s clear that everyone needs antivirus protection, and Microsoft Defender is the first line of defense that comes with every Windows PC. I’ve reviewed the best third-party antivirus software availa… [+6696 chars]</t>
+          <t>The messages just keep coming, often in all caps. 
+They might say something like: "6X-MATCH SAVE PENNSYLVANIA," or "Horrible: If Ted Cruz and Kari Lake win, Kamala's Majority is GONE. 5X-MATCH TO SA… [+3654 chars]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.digitaltrends.com/computing/microsoft-defender-review/</t>
+          <t>https://www.cnet.com/tech/services-and-software/political-campaign-texts-probably-arent-scams-but-they-are-spam/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Android Central</t>
+          <t>CNET</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Google Messages now has smarter detection to tackle tricky scam messages</t>
+          <t>Marriott to Boost Data Protection Practices as Part of Deal With FTC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>techkritiko@gmail.com (Jay Bonggolto)</t>
+          <t>Bree Fowler</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Google’s latest updates are geared to guard Android users from fake deliveries, job-offer scams, and other shady schemes using on-device AI.</t>
+          <t>The agreement settles charges stemming from a trio of data breaches that compromised the personal information of more than 344 million customers.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>What you need to know
-&lt;ul&gt;&lt;li&gt;Google’s Messages app now uses on-device AI to fight off spam, suspicious links, and other unwanted content.&lt;/li&gt;&lt;li&gt;If a potential scam is detected, Messages will eith… [+3027 chars]</t>
+          <t>Marriott International and its Starwood Hotels &amp;amp; Resorts Worldwide subsidiary will put in place a "robust" new data security program to settle charges that its poor security practices led to a tr… [+3009 chars]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.androidcentral.com/apps-software/google-messages-now-has-smarter-detection-to-tackle-tricky-scam-messages</t>
+          <t>https://www.cnet.com/tech/services-and-software/marriott-to-boost-data-protection-practices-as-part-of-deal-with-ftc/</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1516,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>iPhone Mirroring is currently a privacy and legal risk on work Macs</t>
+          <t>T-Mobile data breaches: Company pays fine and promises to do better</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1524,148 +1526,151 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>One of the new features of iOS 18 and macOS Sequoia is iPhone Mirroring – but using this with a personal iPhone on a work Mac currently creates a privacy risk for employees, and a legal risk for businesses.
-The problem, as cybersecurity company Sevco disco…</t>
+          <t>A succession of T-Mobile data breaches saw millions of customers have their personal data exposed. The company has now been fined $15.75M, and has agreed to spend the same amount again on upgrading its security.
+The Federal Communications Commission (FCC) …</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>One of the new features of iOS 18 and macOS Sequoia is iPhone Mirroring but using this with a personal iPhone on a work Mac currently creates a privacy risk for employees, and a legal risk for busine… [+2554 chars]</t>
+          <t>A succession of T-Mobile data breaches saw millions of customers have their personal data exposed. The company has now been fined $15.75M, and has agreed to spend the same amount again on upgrading i… [+1939 chars]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://9to5mac.com/2024/10/08/iphone-mirroring-is-currently-a-privacy-and-legal-risk-on-work-macs/</t>
+          <t>https://9to5mac.com/2024/10/01/t-mobile-data-breaches-company-pays-fine-and-promises-to-do-better/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CNET</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Political Campaign Texts Probably Aren't Scams, But They Are Spam</t>
+          <t>No degree? No problem. Inside Blackstone's ambitious plans to internally grow talent for its data centers and other portfolio companies</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bree Fowler</t>
+          <t>Alex Nicoll</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Texts from campaigns and PACs have us doing a lot of deleting and blocking. Here's what you need to know.</t>
+          <t>Blackstone's $100 billion-plus bet on data centers requires skilled labor. Here's how the firm is investing in talent at companies like QTS.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The messages just keep coming, often in all caps. 
-They might say something like: "6X-MATCH SAVE PENNSYLVANIA," or "Horrible: If Ted Cruz and Kari Lake win, Kamala's Majority is GONE. 5X-MATCH TO SA… [+3654 chars]</t>
+          <t>Three QTS employees walk down the hallway of a data center.Blackstone
+&lt;ul&gt;&lt;li&gt;Blackstone is investing big in data centers and other AI infrastructure.&lt;/li&gt;&lt;li&gt;That means getting ahead of the data-ce… [+8281 chars]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/tech/services-and-software/political-campaign-texts-probably-arent-scams-but-they-are-spam/</t>
+          <t>https://www.businessinsider.com/blackstone-career-pathways-training-internships-data-center-talent-portfolio-companies-2024-9</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CNET</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marriott to Boost Data Protection Practices as Part of Deal With FTC</t>
+          <t>iOS and Android Security Scare: Two Apps Found Supporting 'Pig Butchering' Scheme</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bree Fowler</t>
+          <t>EditorDavid</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The agreement settles charges stemming from a trio of data breaches that compromised the personal information of more than 344 million customers.</t>
+          <t>"Pig Butchering Alert: Fraudulent Trading App targeted iOS and Android users." 
+That's the title of a new report released this week by cybersecurity company Group-IB revealing the official Apple App Store and Google Play store offered apps that were actually…</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Marriott International and its Starwood Hotels &amp;amp; Resorts Worldwide subsidiary will put in place a "robust" new data security program to settle charges that its poor security practices led to a tr… [+3009 chars]</t>
+          <t>"Pig Butchering Alert: Fraudulent Trading App targeted iOS and Android users."That's the title of a new report released this week by cybersecurity company Group-IB revealing the official Apple App St… [+3812 chars]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/tech/services-and-software/marriott-to-boost-data-protection-practices-as-part-of-deal-with-ftc/</t>
+          <t>https://yro.slashdot.org/story/24/10/06/0122217/ios-and-android-security-scare-two-apps-found-supporting-pig-butchering-scheme</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Yahoo Entertainment</t>
+          <t>9to5Mac</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CrowdStrike Holdings, Inc. (CRWD): Are Hedge Funds Bullish On This High Volume Stock Right Now?</t>
+          <t>Chinese hack of US ISPs shows why Apple is right about backdoors for law enforcement</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sheryar Siddiq</t>
+          <t>Ben Lovejoy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>We recently compiled a list of the 10 Best High Volume Stocks To Buy According to Hedge Funds. In this article, we are going to take a look at where...</t>
+          <t>It was revealed this weekend that Chinese hackers managed to access systems run by three of the largest internet service providers (ISPs) in the US.
+What’s notable about the attack is that it compromised security backdoors deliberately created to allow for…</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>We recently compiled a list of the 10 Best High Volume Stocks To Buy According to Hedge Funds. In this article, we are going to take a look at where CrowdStrike Holdings, Inc. (NASDAQ:CRWD) stands ag… [+6721 chars]</t>
+          <t>It was revealed this weekend that Chinese hackers managed to access systems run by three of the largest internet service providers (ISPs) in the US.
+What’s notable about the attack is that it compro… [+2875 chars]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/crowdstrike-holdings-inc-crwd-hedge-065641997.html/</t>
+          <t>https://9to5mac.com/2024/10/08/chinese-hack-of-us-isps-shows-why-apple-is-right-about-backdoors-for-law-enforcement/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9to5Mac</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T-Mobile data breaches: Company pays fine and promises to do better</t>
+          <t>23andMe users are worried about what might happen to their data. Here's what the company says.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ben Lovejoy</t>
+          <t>Jordan Hart</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A succession of T-Mobile data breaches saw millions of customers have their personal data exposed. The company has now been fined $15.75M, and has agreed to spend the same amount again on upgrading its security.
-The Federal Communications Commission (FCC) …</t>
+          <t>23andMe faces uncertainty amid acquisition talks and board resignations, and users are worried about their data. Here's what the company says.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A succession of T-Mobile data breaches saw millions of customers have their personal data exposed. The company has now been fined $15.75M, and has agreed to spend the same amount again on upgrading i… [+1939 chars]</t>
+          <t>Whoever owns 23andMe next might have access millions of users' data.Justin Sullivan/Getty Images
+&lt;ul&gt;&lt;li&gt;23andMe's future is uncertain amid potential acquisition talks.&lt;/li&gt;&lt;li&gt;The company has faced… [+2826 chars]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://9to5mac.com/2024/10/01/t-mobile-data-breaches-company-pays-fine-and-promises-to-do-better/</t>
+          <t>https://www.businessinsider.com/23andme-user-data-what-might-happen-after-possible-takeover-2024-10</t>
         </is>
       </c>
     </row>
@@ -1677,248 +1682,115 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>No degree? No problem. Inside Blackstone's ambitious plans to internally grow talent for its data centers and other portfolio companies</t>
+          <t>Jensen Huang says he wants Nvidia to be a company with 100 million AI assistants</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alex Nicoll</t>
+          <t>Shubhangi Goel</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Blackstone's $100 billion-plus bet on data centers requires skilled labor. Here's how the firm is investing in talent at companies like QTS.</t>
+          <t>Nvidia CEO Jensen Huang said on a podcast says he hopes Nvidia will one day be a 50,000-employee company that works with 100 million AI assistants.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Three QTS employees walk down the hallway of a data center.Blackstone
-&lt;ul&gt;&lt;li&gt;Blackstone is investing big in data centers and other AI infrastructure.&lt;/li&gt;&lt;li&gt;That means getting ahead of the data-ce… [+8281 chars]</t>
+          <t>Jensen Huang wants Nvidia to be a company with 100 million AI assistants I-hwa Cheng/Getty
+&lt;ul&gt;&lt;li&gt;Jensen Huang says he hopes Nvidia will be a 50,000 employee company with "a 100 million AI assistan… [+3132 chars]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/blackstone-career-pathways-training-internships-data-center-talent-portfolio-companies-2024-9</t>
+          <t>https://www.businessinsider.com/jensen-huang-wants-nvidia-to-have-100-million-ai-assistants-2024-10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Slashdot.org</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>iOS and Android Security Scare: Two Apps Found Supporting 'Pig Butchering' Scheme</t>
+          <t>I'm a CEO and the breadwinner for my family. My husband decided to leave his high-stress job to care for our daughter.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EditorDavid</t>
+          <t>Lauren Crosby Medlicott</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>"Pig Butchering Alert: Fraudulent Trading App targeted iOS and Android users." 
-That's the title of a new report released this week by cybersecurity company Group-IB revealing the official Apple App Store and Google Play store offered apps that were actually…</t>
+          <t>Brenda Christensen and her husband decided it was best for him to quit his job and take care of their daughter after her autism diagnosis.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>"Pig Butchering Alert: Fraudulent Trading App targeted iOS and Android users."That's the title of a new report released this week by cybersecurity company Group-IB revealing the official Apple App St… [+3812 chars]</t>
+          <t>The author became the breadwinner of the family when her husband chose to stay at home with their daughter. ESB Professional/Shutterstock
+&lt;ul&gt;&lt;li&gt;Brenda Christensen is a 62-year-old and CEO of Stell… [+3251 chars]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://yro.slashdot.org/story/24/10/06/0122217/ios-and-android-security-scare-two-apps-found-supporting-pig-butchering-scheme</t>
+          <t>https://www.businessinsider.com/woman-breadwinner-of-family-husband-takes-care-of-child-2024-9</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9to5Mac</t>
+          <t>Slashdot.org</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chinese hack of US ISPs shows why Apple is right about backdoors for law enforcement</t>
+          <t>China Cyber Association Calls For Review of Intel Products Sold In China</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ben Lovejoy</t>
+          <t>BeauHD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>It was revealed this weekend that Chinese hackers managed to access systems run by three of the largest internet service providers (ISPs) in the US.
-What’s notable about the attack is that it compromised security backdoors deliberately created to allow for…</t>
+          <t>The Cybersecurity Association of China (CSAC) has recommended a security review of Intel's products sold in China, accusing the U.S. chipmaker of harming national security and citing vulnerabilities in its chips. Reuters reports: While CSAC is an industry gro…</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>It was revealed this weekend that Chinese hackers managed to access systems run by three of the largest internet service providers (ISPs) in the US.
-What’s notable about the attack is that it compro… [+2875 chars]</t>
+          <t>While CSAC is an industry group rather than a government body, it has close ties to the Chinese state and the raft of accusations against Intel, published in a long post on its official WeChat accoun… [+1058 chars]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://9to5mac.com/2024/10/08/chinese-hack-of-us-isps-shows-why-apple-is-right-about-backdoors-for-law-enforcement/</t>
+          <t>https://it.slashdot.org/story/24/10/17/0014234/china-cyber-association-calls-for-review-of-intel-products-sold-in-china</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>Techmeme.com</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23andMe users are worried about what might happen to their data. Here's what the company says.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Jordan Hart</t>
-        </is>
-      </c>
+          <t>UK-based Sophos plans to acquire Atlanta-based cybersecurity company Secureworks for ~$859M, expected to close in early 2025; Dell owns ~79% of Secureworks (Joe Warminsky/The Record)</t>
+        </is>
+      </c>
+      <c r="C54"/>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>23andMe faces uncertainty amid acquisition talks and board resignations, and users are worried about their data. Here's what the company says.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Whoever owns 23andMe next might have access millions of users' data.Justin Sullivan/Getty Images
-&lt;ul&gt;&lt;li&gt;23andMe's future is uncertain amid potential acquisition talks.&lt;/li&gt;&lt;li&gt;The company has faced… [+2826 chars]</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>https://www.businessinsider.com/23andme-user-data-what-might-happen-after-possible-takeover-2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Business Insider</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Jensen Huang says he wants Nvidia to be a company with 100 million AI assistants</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Shubhangi Goel</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Nvidia CEO Jensen Huang said on a podcast says he hopes Nvidia will one day be a 50,000-employee company that works with 100 million AI assistants.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Jensen Huang wants Nvidia to be a company with 100 million AI assistants I-hwa Cheng/Getty
-&lt;ul&gt;&lt;li&gt;Jensen Huang says he hopes Nvidia will be a 50,000 employee company with "a 100 million AI assistan… [+3132 chars]</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>https://www.businessinsider.com/jensen-huang-wants-nvidia-to-have-100-million-ai-assistants-2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Business Insider</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>I'm a CEO and the breadwinner for my family. My husband decided to leave his high-stress job to care for our daughter.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Lauren Crosby Medlicott</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Brenda Christensen and her husband decided it was best for him to quit his job and take care of their daughter after her autism diagnosis.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>The author became the breadwinner of the family when her husband chose to stay at home with their daughter. ESB Professional/Shutterstock
-&lt;ul&gt;&lt;li&gt;Brenda Christensen is a 62-year-old and CEO of Stell… [+3251 chars]</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>https://www.businessinsider.com/woman-breadwinner-of-family-husband-takes-care-of-child-2024-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Slashdot.org</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>China Cyber Association Calls For Review of Intel Products Sold In China</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BeauHD</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>The Cybersecurity Association of China (CSAC) has recommended a security review of Intel's products sold in China, accusing the U.S. chipmaker of harming national security and citing vulnerabilities in its chips. Reuters reports: While CSAC is an industry gro…</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>While CSAC is an industry group rather than a government body, it has close ties to the Chinese state and the raft of accusations against Intel, published in a long post on its official WeChat accoun… [+1058 chars]</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>https://it.slashdot.org/story/24/10/17/0014234/china-cyber-association-calls-for-review-of-intel-products-sold-in-china</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Techmeme.com</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>UK-based Sophos plans to acquire Atlanta-based cybersecurity company Secureworks for ~$859M, expected to close in early 2025; Dell owns ~79% of Secureworks (Joe Warminsky/The Record)</t>
-        </is>
-      </c>
-      <c r="C58"/>
-      <c r="D58" t="inlineStr">
         <is>
           <t>Joe Warminsky / The Record:
 UK-based Sophos plans to acquire Atlanta-based cybersecurity company Secureworks for ~$859M, expected to close in early 2025; Dell owns ~79% of Secureworks  —  Prominent cybersecurity company Sophos is acquiring another well-known …</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>About This Page
 This is a Techmeme archive page.
@@ -1927,41 +1799,173 @@
 To … [+71 chars]</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.techmeme.com/241021/p16</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>How do video game companies like Game Freak keep getting hacked?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Nicole Carpenter</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Over the weekend, Pokémon source code, art, and other documentation quickly spread across social media and other internet forums. Where did it come from? Game Freak confirmed last week it had been hacked, with more than 2,600 pieces of employee data taken. It…</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Over the weekend, Pokémon source code, art, and other documentation quickly spread across social media and other internet forums. Where did it come from? Game Freak confirmed last week it had been ha… [+7501 chars]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.polygon.com/analysis/465967/pokemon-game-freak-nintendo-hack-leak</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Theregister.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tech firms to pay millions in SEC penalties for misleading SolarWinds disclosures</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Brandon Vigliarolo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Unisys, Avaya, Check Point, and Mimecast settled with the agency without admitting or denying wrongdoing
+Four high-profile tech companies reached an agreement with the Securities and Exchange Commission to pay millions of dollars in penalties for misleading i…</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Four high-profile tech companies reached an agreement with the Securities and Exchange Commission to pay millions of dollars in penalties for misleading investors about their exposure to the 2020 Sol… [+4419 chars]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2024/10/22/sec_fines_four_tech_firms/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Theregister.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Microsoft SharePoint RCE flaw exploits in the wild – you've had 3 months to patch</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Jessica Lyons</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Plus, a POC to make it extra easy for attackers
+A Microsoft SharePoint bug that can allow an attacker to remotely inject code into vulnerable versions is under active exploitation, according to the US Cybersecurity and Infrastructure Security Agency (CISA).…&lt;…</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A Microsoft SharePoint bug that can allow an attacker to remotely inject code into vulnerable versions is under active exploitation, according to the US Cybersecurity and Infrastructure Security Agen… [+1794 chars]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2024/10/23/microsoft_sharepoint_rce_exploited/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Theregister.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UK's Sellafield nuke waste processing plant fined £333K for infosec blunders</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Jessica Lyons</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Radioactive hazards and cyber failings ... what could possibly go wrong?
+The outfit that runs Britain's Sellafield nuclear waste processing and decommissioning site has been fined £332,500 ($440,000) by the nation's Office for Nuclear Regulation (ONR) for its…</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>The outfit that runs Britain's Sellafield nuclear waste processing and decommissioning site has been fined £332,500 ($440,000) by the nation's Office for Nuclear Regulation (ONR) for its shoddy cyber… [+2931 chars]</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.techmeme.com/241021/p16</t>
+          <t>https://www.theregister.com/2024/10/05/sellafield_nuclear_site_fined/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>How do video game companies like Game Freak keep getting hacked?</t>
+          <t>CISA adds fresh Ivanti vuln, critical Fortinet bug to hall of shame</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nicole Carpenter</t>
+          <t>Connor Jones</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Over the weekend, Pokémon source code, art, and other documentation quickly spread across social media and other internet forums. Where did it come from? Game Freak confirmed last week it had been hacked, with more than 2,600 pieces of employee data taken. It…</t>
+          <t>Usual three-week window to address significant risks to federal agencies applies
+The US Cybersecurity and Infrastructure Security Agency (CISA) says vulnerabilities in Fortinet and Ivanti products are now being exploited, earning them places in its Known Expl…</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Over the weekend, Pokémon source code, art, and other documentation quickly spread across social media and other internet forums. Where did it come from? Game Freak confirmed last week it had been ha… [+7501 chars]</t>
+          <t>The US Cybersecurity and Infrastructure Security Agency (CISA) says vulnerabilities in Fortinet and Ivanti products are now being exploited, earning them places in its Known Exploited Vulnerabilities… [+4669 chars]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.polygon.com/analysis/465967/pokemon-game-freak-nintendo-hack-leak</t>
+          <t>https://www.theregister.com/2024/10/10/cisa_ivanti_fortinet_vulns/</t>
         </is>
       </c>
     </row>
@@ -1973,848 +1977,847 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tech firms to pay millions in SEC penalties for misleading SolarWinds disclosures</t>
+          <t>SolarWinds critical hardcoded credential bug under active exploit</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brandon Vigliarolo</t>
+          <t>Jessica Lyons</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Unisys, Avaya, Check Point, and Mimecast settled with the agency without admitting or denying wrongdoing
-Four high-profile tech companies reached an agreement with the Securities and Exchange Commission to pay millions of dollars in penalties for misleading i…</t>
+          <t>No word yet on scope of attacks
+A critical, hardcoded credential bug in SolarWinds' Web Help Desk products has been found and exploited by criminals, according to the US Cybersecurity and Infrastructure Security Agency, which has added the flaw to its Known E…</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Four high-profile tech companies reached an agreement with the Securities and Exchange Commission to pay millions of dollars in penalties for misleading investors about their exposure to the 2020 Sol… [+4419 chars]</t>
+          <t>A critical, hardcoded credential bug in SolarWinds' Web Help Desk products has been found and exploited by criminals, according to the US Cybersecurity and Infrastructure Security Agency, which has a… [+2167 chars]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/22/sec_fines_four_tech_firms/</t>
+          <t>https://www.theregister.com/2024/10/16/solarwinds_critical_hardcoded_credential_bug/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Microsoft SharePoint RCE flaw exploits in the wild – you've had 3 months to patch</t>
+          <t>Over 600M cyberattacks target Windows users every day</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jessica Lyons</t>
+          <t>Kurt Knutsson, CyberGuy Report</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Plus, a POC to make it extra easy for attackers
-A Microsoft SharePoint bug that can allow an attacker to remotely inject code into vulnerable versions is under active exploitation, according to the US Cybersecurity and Infrastructure Security Agency (CISA).…&lt;…</t>
+          <t>Windows operating system users face more than 600 million cyberattacks every day, according to Kurt "CyberGuy" Knutsson. The attacks are on the rise.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A Microsoft SharePoint bug that can allow an attacker to remotely inject code into vulnerable versions is under active exploitation, according to the US Cybersecurity and Infrastructure Security Agen… [+1794 chars]</t>
+          <t>Cyberattacks are more common than ever, and if you're a Windows user, you're probably feeling the impact more than others. 
+Hackers are always targeting Windows PCs, and you've probably seen reports… [+8015 chars]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/23/microsoft_sharepoint_rce_exploited/</t>
+          <t>https://www.foxnews.com/tech/over-600-million-cyberattacks-target-windows-users-every-day</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>UK's Sellafield nuke waste processing plant fined £333K for infosec blunders</t>
+          <t>AT&amp;T, Verizon reportedly hacked to target US govt wiretapping platform</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jessica Lyons</t>
+          <t>Ionut Ilascu</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Radioactive hazards and cyber failings ... what could possibly go wrong?
-The outfit that runs Britain's Sellafield nuclear waste processing and decommissioning site has been fined £332,500 ($440,000) by the nation's Office for Nuclear Regulation (ONR) for its…</t>
+          <t>Multiple U.S. broadband providers, including Verizon, AT&amp;T, and Lumen Technologies, have been breached by a Chinese hacking group tracked as Salt Typhoon, the Wall Street Journal reports.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The outfit that runs Britain's Sellafield nuclear waste processing and decommissioning site has been fined £332,500 ($440,000) by the nation's Office for Nuclear Regulation (ONR) for its shoddy cyber… [+2931 chars]</t>
+          <t>Multiple U.S. broadband providers, including Verizon, AT&amp;amp;T, and Lumen Technologies, have been breached by a Chinese hacking group tracked as Salt Typhoon, the Wall Street Journal reports.
+The pu… [+3985 chars]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/05/sellafield_nuclear_site_fined/</t>
+          <t>https://www.bleepingcomputer.com/news/security/atandt-verizon-reportedly-hacked-to-target-us-govt-wiretapping-platform/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Github.blog</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Public Wi-Fi operator investigating cyberattack at UK's busiest train stations</t>
+          <t>Cybersecurity spotlight on bug bounty researcher @adrianoapj</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Connor Jones</t>
+          <t>Brandon Szymanski</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>See it, say it… not sorted just yet as network access remains offline
-A cybersecurity incident is being probed at Network Rail, the UK non-departmental public body responsible for repairing and developing train infrastructure, after unsavory messaging was dis…</t>
+          <t>As we wrap up Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Program—@adrianoapj!
+The post Cybersecurity spotlight on bug b…</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A cybersecurity incident is being probed at Network Rail, the UK non-departmental public body responsible for repairing and developing train infrastructure, after unsavory messaging was displayed to … [+3449 chars]</t>
+          <t>As we wrap up Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Pr… [+6359 chars]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/09/26/public_wifi_operator_investigating_cyberattack/</t>
+          <t>https://github.blog/security/vulnerability-research/cybersecurity-spotlight-on-bug-bounty-researcher-adrianoapj/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Github.blog</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CISA adds fresh Ivanti vuln, critical Fortinet bug to hall of shame</t>
+          <t>Cybersecurity spotlight on bug bounty researcher @imrerad</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Connor Jones</t>
+          <t>Brandon Szymanski</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Usual three-week window to address significant risks to federal agencies applies
-The US Cybersecurity and Infrastructure Security Agency (CISA) says vulnerabilities in Fortinet and Ivanti products are now being exploited, earning them places in its Known Expl…</t>
+          <t>For this year’s Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Program—@imrerad!
+The post Cybersecurity spotlight on bug bo…</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The US Cybersecurity and Infrastructure Security Agency (CISA) says vulnerabilities in Fortinet and Ivanti products are now being exploited, earning them places in its Known Exploited Vulnerabilities… [+4669 chars]</t>
+          <t>For this years Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty P… [+6480 chars]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/10/cisa_ivanti_fortinet_vulns/</t>
+          <t>https://github.blog/security/vulnerability-research/cybersecurity-spotlight-on-bug-bounty-researcher-imrerad/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Yahoo Entertainment</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SolarWinds critical hardcoded credential bug under active exploit</t>
+          <t>How to stream via a VPN on your Google TV or Chromecast</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jessica Lyons</t>
+          <t>Aaron Kim</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No word yet on scope of attacks
-A critical, hardcoded credential bug in SolarWinds' Web Help Desk products has been found and exploited by criminals, according to the US Cybersecurity and Infrastructure Security Agency, which has added the flaw to its Known E…</t>
+          <t>Google TV is an easy to use operating system that provides access to all of the best streaming services in one centralized location. A growing number of modestly priced smart TVs have Google TV built-in. But even if your smart TV runs a different OS, you can …</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A critical, hardcoded credential bug in SolarWinds' Web Help Desk products has been found and exploited by criminals, according to the US Cybersecurity and Infrastructure Security Agency, which has a… [+2167 chars]</t>
+          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+678 chars]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/16/solarwinds_critical_hardcoded_credential_bug/</t>
+          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_6aeefa08-e655-4016-a2cf-4360e5a35559</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fox News</t>
+          <t>The Next Web</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Over 600M cyberattacks target Windows users every day</t>
+          <t>TNW Conference 2025 theme spotlight: AI and Deeptech</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kurt Knutsson, CyberGuy Report</t>
+          <t>Thomas Macaulay</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Windows operating system users face more than 600 million cyberattacks every day, according to Kurt "CyberGuy" Knutsson. The attacks are on the rise.</t>
+          <t>Debates about AI are everywhere these days. Families are chatting about its impacts on their lives. Politicians are deliberating over the laws that oversee it. Workers are talking about the risks of job automation. Entrepreneurs are chewing over the business …</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cyberattacks are more common than ever, and if you're a Windows user, you're probably feeling the impact more than others. 
-Hackers are always targeting Windows PCs, and you've probably seen reports… [+8015 chars]</t>
+          <t>Debates about AI are everywhere these days. 
+Families are chatting about its impacts on their lives. Politicians are deliberating over the laws that oversee it. Workers are talking about the risks o… [+3019 chars]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.foxnews.com/tech/over-600-million-cyberattacks-target-windows-users-every-day</t>
+          <t>https://thenextweb.com/news/tnw-conference-2025-theme-spotlight-ai-and-deeptech</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AT&amp;T, Verizon reportedly hacked to target US govt wiretapping platform</t>
+          <t>Microsoft says governments should bear the responsibility for dealing with cybercrime</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ionut Ilascu</t>
+          <t>Connor Jones</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Multiple U.S. broadband providers, including Verizon, AT&amp;T, and Lumen Technologies, have been breached by a Chinese hacking group tracked as Salt Typhoon, the Wall Street Journal reports.</t>
+          <t>Although it also reaffirmed commitment to secure-by-design initiatives
+Microsoft is calling for more robust deterrents to be placed on nation-states as criminals continue to run rife across online systems "without any meaningful consequences."…</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Multiple U.S. broadband providers, including Verizon, AT&amp;amp;T, and Lumen Technologies, have been breached by a Chinese hacking group tracked as Salt Typhoon, the Wall Street Journal reports.
-The pu… [+3985 chars]</t>
+          <t>Microsoft is calling for more robust deterrents to be placed on nation-states as criminals continue to run rife across online systems "without any meaningful consequences."
+However, like those conse… [+7113 chars]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/atandt-verizon-reportedly-hacked-to-target-us-govt-wiretapping-platform/</t>
+          <t>https://www.theregister.com/2024/10/15/microsoft_digital_defense_report/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Github.blog</t>
+          <t>Krebs on Security</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cybersecurity spotlight on bug bounty researcher @adrianoapj</t>
+          <t>Patch Tuesday, October 2024 Edition</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brandon Szymanski</t>
+          <t>BrianKrebs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>As we wrap up Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Program—@adrianoapj!
-The post Cybersecurity spotlight on bug b…</t>
+          <t>Microsoft today released security updates to fix at least 117 security holes in Windows computers and other software, including two vulnerabilities that are already seeing active attacks. Also, Adobe plugged 52 security holes across a range of products, and A…</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>As we wrap up Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Pr… [+6359 chars]</t>
+          <t>Microsoft today released security updates to fix at least 117 security holes in Windows computers and other software, including two vulnerabilities that are already seeing active attacks. Also, Adobe… [+3477 chars]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://github.blog/security/vulnerability-research/cybersecurity-spotlight-on-bug-bounty-researcher-adrianoapj/</t>
+          <t>https://krebsonsecurity.com/2024/10/patch-tuesday-october-2024-edition/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Github.blog</t>
+          <t>heise online</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cybersecurity spotlight on bug bounty researcher @imrerad</t>
+          <t>heise-Angebot: iX-Konferenz: Vorbereitung auf NIS2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brandon Szymanski</t>
+          <t>Dr. Oliver Diedrich</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>For this year’s Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty Program—@imrerad!
-The post Cybersecurity spotlight on bug bo…</t>
+          <t>Diese eintägige Online-Konferenz liefert einen umfassenden Überblick, welche Unternehmen wie von NIS2 betroffen sind und was die neue Regulierung verlangt.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>For this years Cybersecurity Awareness Month, the GitHub Bug Bounty team is excited to feature another spotlight on a talented security researcher who participates in the GitHub Security Bug Bounty P… [+6480 chars]</t>
+          <t>Vor zwei Wochen hat der Bundestag erstmals über das deutsche NIS2-Umsetzungs- und Cybersicherheitsstärkungsgesetz beraten. Fachleute gehen davon aus, dass die zweite EU-Richtlinie zur Netzwerk- und I… [+1513 chars]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://github.blog/security/vulnerability-research/cybersecurity-spotlight-on-bug-bounty-researcher-imrerad/</t>
+          <t>https://www.heise.de/news/iX-Konferenz-Vorbereitung-auf-NIS2-9989486.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Yahoo Entertainment</t>
+          <t>heise online</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>How to stream via a VPN on your Google TV or Chromecast</t>
+          <t>Dienstag: Sophos übernimmt Secureworks, Zukunftsoptimismus beim Digitalgipfel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Aaron Kim</t>
+          <t>Andreas Knobloch</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Google TV is an easy to use operating system that provides access to all of the best streaming services in one centralized location. A growing number of modestly priced smart TVs have Google TV built-in. But even if your smart TV runs a different OS, you can …</t>
+          <t>Millionensumme für Secureworks + Datenschutz neu justiert + Roboter mit Geschwindigkeitsrekord + CPU-Kerne fürs Smartphone + Teslas Autopilot auf dem Prüfstand</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>If you click 'Accept all', we and our partners, including 238 who are part of the IAB Transparency &amp;amp; Consent Framework, will also store and/or access information on a device (in other words, use … [+678 chars]</t>
+          <t>Das IT-Sicherheitsunternehmen Sophos wird die US-Cybersecurityfirma Secureworks für 859 Millionen US-Dollar in bar übernehmen. Anfang nächsten Jahres soll der Kauf abgeschlossen sein. Beim Digitalgip… [+3328 chars]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://consent.yahoo.com/v2/collectConsent?sessionId=1_cc-session_6aeefa08-e655-4016-a2cf-4360e5a35559</t>
+          <t>https://www.heise.de/news/Dienstag-Sophos-uebernimmt-Secureworks-Zukunftsoptimismus-beim-Digitalgipfel-9989173.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The Next Web</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TNW Conference 2025 theme spotlight: AI and Deeptech</t>
+          <t>Where to watch Las Vegas Aces vs. New York Liberty: Live stream Game 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Thomas Macaulay</t>
+          <t>insider@insider.com (Lillian Brown)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Debates about AI are everywhere these days. Families are chatting about its impacts on their lives. Politicians are deliberating over the laws that oversee it. Workers are talking about the risks of job automation. Entrepreneurs are chewing over the business …</t>
+          <t>The Aces and the Liberty meet again in Sunday's semifinal game. We'll show you where to watch the Las Vegas Aces and New York Liberty at home.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Debates about AI are everywhere these days. 
-Families are chatting about its impacts on their lives. Politicians are deliberating over the laws that oversee it. Workers are talking about the risks o… [+3019 chars]</t>
+          <t>When you buy through our links, Business Insider may earn an affiliate commission. Learn more
+The WNBA Semifinals kick off on Sunday with an Aces vs. Liberty match-up in New York, a repeat of the 20… [+5366 chars]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://thenextweb.com/news/tnw-conference-2025-theme-spotlight-ai-and-deeptech</t>
+          <t>https://www.businessinsider.com/guides/streaming/where-to-watch-aces-liberty-wnba-playoffs-game-1-2024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Schneier.com</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Microsoft says governments should bear the responsibility for dealing with cybercrime</t>
+          <t>IronNet Has Shut Down</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Connor Jones</t>
+          <t>Bruce Schneier</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Although it also reaffirmed commitment to secure-by-design initiatives
-Microsoft is calling for more robust deterrents to be placed on nation-states as criminals continue to run rife across online systems "without any meaningful consequences."…</t>
+          <t>After retiring in 2014 from an uncharacteristically long tenure running the NSA (and US CyberCommand), Keith Alexander founded a cybersecurity company called IronNet. At the time, he claimed that it was based on IP he developed on his own time while still in …</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Microsoft is calling for more robust deterrents to be placed on nation-states as criminals continue to run rife across online systems "without any meaningful consequences."
-However, like those conse… [+7113 chars]</t>
+          <t>After retiring in 2014 from an uncharacteristically long tenure running the NSA (and US CyberCommand), Keith Alexander founded a cybersecurity company called IronNet. At the time, he claimed that it … [+2192 chars]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/15/microsoft_digital_defense_report/</t>
+          <t>https://www.schneier.com/blog/archives/2024/10/ironnet-has-shut-down.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Krebs on Security</t>
+          <t>Techdirt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Patch Tuesday, October 2024 Edition</t>
+          <t>Wyden: CALEA Hack Proves Dangers Of Government-Mandated Backdoors</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BrianKrebs</t>
+          <t>Mike Masnick</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Microsoft today released security updates to fix at least 117 security holes in Windows computers and other software, including two vulnerabilities that are already seeing active attacks. Also, Adobe plugged 52 security holes across a range of products, and A…</t>
+          <t>When Congress passed the Communications Assistance for Law Enforcement Act (CALEA) in 1994, they were assured by then-FBI Director Louis Freeh that the mandated wiretap backdoors posed no security risks. Fast forward to today, following the news of a massive …</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Microsoft today released security updates to fix at least 117 security holes in Windows computers and other software, including two vulnerabilities that are already seeing active attacks. Also, Adobe… [+3477 chars]</t>
+          <t>from the backdoors-are-bad,-full-stop dept
+When Congress passed the Communications Assistance for Law Enforcement Act (CALEA) in 1994, they were assured by then-FBI Director Louis Freeh that the man… [+4235 chars]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2024/10/patch-tuesday-october-2024-edition/</t>
+          <t>https://www.techdirt.com/2024/10/16/wyden-calea-hack-proves-dangers-of-government-mandated-backdoors/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>Digital Trends</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>heise-Angebot: iX-Konferenz: Vorbereitung auf NIS2</t>
+          <t>I reviewed McAfee+ Premium for Mac and found it to be a questionable bargain</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dr. Oliver Diedrich</t>
+          <t>Alan Truly</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Diese eintägige Online-Konferenz liefert einen umfassenden Überblick, welche Unternehmen wie von NIS2 betroffen sind und was die neue Regulierung verlangt.</t>
+          <t>I reviewed McAfee antivirus for Mac to find out it the added protection is worth the subscription costs and if it integrates well with macOS.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Vor zwei Wochen hat der Bundestag erstmals über das deutsche NIS2-Umsetzungs- und Cybersicherheitsstärkungsgesetz beraten. Fachleute gehen davon aus, dass die zweite EU-Richtlinie zur Netzwerk- und I… [+1513 chars]</t>
+          <t>If you’re looking for antivirus software for your Mac, you might be drawn to the pleasingly familiar name McAfee, a well-rated cybersecurity solution that recently added AI phishing detection to help… [+8902 chars]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/iX-Konferenz-Vorbereitung-auf-NIS2-9989486.html</t>
+          <t>https://www.digitaltrends.com/computing/mcafee-premium-for-mac-review/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Freitag: Googles Gründe für Marktmacht, Milliarden für KI gegen Finanzbetrug</t>
+          <t>CISA Warns of Critical Fortinet Flaw as Palo Alto and Cisco Issue Urgent Security Patches</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Frank Schräer</t>
+          <t>info@thehackernews.com (The Hacker News)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Werbekontrolle gegen Betrug + KI-Investitionen von Visa und Mastercard + Leapmotor T03 im Fahrbericht + Ubisofts Rückkehr zu Steam + Verbraucherschutz-Podcast</t>
+          <t>The U.S. Cybersecurity and Infrastructure Security Agency (CISA) on Wednesday added a critical security flaw impacting Fortinet products to its Known Exploited Vulnerabilities (KEV) catalog, citing evidence of active exploitation.
+The vulnerability, tracked a…</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Googles Verhalten reduziert Wettbewerb in der Online-Werbekette, so eine Kartellrechtsklage in den USA. Doch das hat gute Gründe, meint der beklagte Datenkonzern vor Gericht. Täglich würden viele Web… [+4448 chars]</t>
+          <t>The U.S. Cybersecurity and Infrastructure Security Agency (CISA) on Wednesday added a critical security flaw impacting Fortinet products to its Known Exploited Vulnerabilities (KEV) catalog, citing e… [+4213 chars]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/Freitag-Googles-Gruende-fuer-Marktmacht-Milliarden-fuer-KI-gegen-Finanzbetrug-9955093.html</t>
+          <t>https://thehackernews.com/2024/10/cisa-warns-of-critical-fortinet-flaw-as.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dienstag: Sophos übernimmt Secureworks, Zukunftsoptimismus beim Digitalgipfel</t>
+          <t>Researchers Discover Severe Security Flaws in Major E2EE Cloud Storage Providers</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Andreas Knobloch</t>
+          <t>info@thehackernews.com (The Hacker News)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Millionensumme für Secureworks + Datenschutz neu justiert + Roboter mit Geschwindigkeitsrekord + CPU-Kerne fürs Smartphone + Teslas Autopilot auf dem Prüfstand</t>
+          <t>Cybersecurity researchers have discovered severe cryptographic issues in various end-to-end encrypted (E2EE) cloud storage platforms that could be exploited to leak sensitive data.
+"The vulnerabilities range in severity: in many cases a malicious server can i…</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Das IT-Sicherheitsunternehmen Sophos wird die US-Cybersecurityfirma Secureworks für 859 Millionen US-Dollar in bar übernehmen. Anfang nächsten Jahres soll der Kauf abgeschlossen sein. Beim Digitalgip… [+3328 chars]</t>
+          <t>Cybersecurity researchers have discovered severe cryptographic issues in various end-to-end encrypted (E2EE) cloud storage platforms that could be exploited to leak sensitive data.
+"The vulnerabilit… [+4157 chars]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/Dienstag-Sophos-uebernimmt-Secureworks-Zukunftsoptimismus-beim-Digitalgipfel-9989173.html</t>
+          <t>https://thehackernews.com/2024/10/researchers-discover-severe-security.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>Schneier.com</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Where to watch Las Vegas Aces vs. New York Liberty: Live stream Game 1</t>
+          <t>Deebot Robot Vacuums Are Using Photos and Audio to Train Their AI</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>insider@insider.com (Lillian Brown)</t>
+          <t>Bruce Schneier</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The Aces and the Liberty meet again in Sunday's semifinal game. We'll show you where to watch the Las Vegas Aces and New York Liberty at home.</t>
+          <t>An Australian news agency is reporting that robot vacuum cleaners from the Chinese company Deebot are surreptitiously taking photos and recording audio, and sending that data back to the vendor to train their AIs.
+Ecovacs’s privacy policy—available elsewhere …</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>When you buy through our links, Business Insider may earn an affiliate commission. Learn more
-The WNBA Semifinals kick off on Sunday with an Aces vs. Liberty match-up in New York, a repeat of the 20… [+5366 chars]</t>
+          <t>An Australian news agency is reporting that robot vacuum cleaners from the Chinese company Deebot are surreptitiously taking photos and recording audio, and sending that data back to the vendor to tr… [+774 chars]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/guides/streaming/where-to-watch-aces-liberty-wnba-playoffs-game-1-2024</t>
+          <t>https://www.schneier.com/blog/archives/2024/10/deebot-robot-vacuums-are-using-photos-and-audio-to-train-their-ai.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Schneier.com</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IronNet Has Shut Down</t>
+          <t>23andMe is floundering. Here is how to delete your data.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bruce Schneier</t>
+          <t>Lauren Edmonds</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>After retiring in 2014 from an uncharacteristically long tenure running the NSA (and US CyberCommand), Keith Alexander founded a cybersecurity company called IronNet. At the time, he claimed that it was based on IP he developed on his own time while still in …</t>
+          <t>23andMe's once rising star has dimmed amid a series of setbacks, leading some users to wonder what will happen to their genetic data.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>After retiring in 2014 from an uncharacteristically long tenure running the NSA (and US CyberCommand), Keith Alexander founded a cybersecurity company called IronNet. At the time, he claimed that it … [+2192 chars]</t>
+          <t>23andMe has navigated several obstacles in recent years, triggering concern from consumers.ERIC BARADAT/Getty Images
+&lt;ul&gt;&lt;li&gt;23andMe's business is floundering after a data hack, lawsuit, and tumblin… [+4491 chars]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.schneier.com/blog/archives/2024/10/ironnet-has-shut-down.html</t>
+          <t>https://www.businessinsider.com/how-to-delete-your-23andme-data-2024-10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Github.blog</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kicking off Cybersecurity Awareness Month: Researcher spotlights and additional incentives!</t>
+          <t>US lawmakers seek answers on alleged Salt Typhoon breach of telecom giants</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Shilpa Kumari</t>
+          <t>Jessica Lyons</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>For this year’s Cybersecurity Awareness Month, GitHub’s Bug Bounty team is excited to offer some additional incentives to security researchers!
-The post Kicking off Cybersecurity Awareness Month: Researcher spotlights and additional incentives! appeared first…</t>
+          <t>Cyberspies abusing a backdoor? Groundbreaking
+Lawmakers are demanding answers about earlier news reports that China's Salt Typhoon cyberspies breached US telecommunications companies Verizon, AT&amp;T, and Lumen Technologies, and hacked their wiretapping systems.…</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cybersecurity Awareness Month is a global initiative that highlights the importance of protecting our digital work. At GitHub, security is the core of how we operate. We’re proud to participate and d… [+2389 chars]</t>
+          <t>Lawmakers are demanding answers about earlier news reports that China's Salt Typhoon cyberspies breached US telecommunications companies Verizon, AT&amp;amp;T, and Lumen Technologies, and hacked their wi… [+3154 chars]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://github.blog/security/vulnerability-research/kicking-off-cybersecurity-awareness-month-researcher-spotlights-and-additional-incentives/</t>
+          <t>https://www.theregister.com/2024/10/11/us_lawmakers_salt_typhoon/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Techdirt</t>
+          <t>heise online</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wyden: CALEA Hack Proves Dangers Of Government-Mandated Backdoors</t>
+          <t>heise-Angebot: iX-Workshop: Einführung in die SAP Business Technology Platform (BTP)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mike Masnick</t>
+          <t>Ilona Krause</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>When Congress passed the Communications Assistance for Law Enforcement Act (CALEA) in 1994, they were assured by then-FBI Director Louis Freeh that the mandated wiretap backdoors posed no security risks. Fast forward to today, following the news of a massive …</t>
+          <t>Lernen Sie, wie Sie mit SAP BTP Anwendungen entwickeln, Schnittstellen integrieren und Geschäftsprozesse optimieren.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>from the backdoors-are-bad,-full-stop dept
-When Congress passed the Communications Assistance for Law Enforcement Act (CALEA) in 1994, they were assured by then-FBI Director Louis Freeh that the man… [+4235 chars]</t>
+          <t>Die SAP Business Technology Platform (SAP BTP) von SAP unterstützt Unternehmen beim Umstieg in die Cloud und bei der Verbesserung ihrer Geschäftsprozesse. Sie stellt eine Vielzahl von Tools und Diens… [+1684 chars]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.techdirt.com/2024/10/16/wyden-calea-hack-proves-dangers-of-government-mandated-backdoors/</t>
+          <t>https://www.heise.de/news/iX-Workshop-Einfuehrung-in-die-SAP-Business-Technology-Platform-BTP-9954502.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Digital Trends</t>
+          <t>Quartz India</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>I reviewed McAfee+ Premium for Mac and found it to be a questionable bargain</t>
+          <t>All hospitals should be concerned about cyberattacks. Here's why</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Alan Truly</t>
+          <t>Bruce Gil</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>I reviewed McAfee antivirus for Mac to find out it the added protection is worth the subscription costs and if it integrates well with macOS.</t>
+          <t>Cybersecurity attacks against the health care industry are rapidly increasing and taking a toll both financially on hospitals and on patient health, according to a new report by Microsoft (MSFT).Read more...</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>If you’re looking for antivirus software for your Mac, you might be drawn to the pleasingly familiar name McAfee, a well-rated cybersecurity solution that recently added AI phishing detection to help… [+8902 chars]</t>
+          <t>In This Story
+Cybersecurity attacks against the health care industry are rapidly increasing and taking a toll both financially on hospitals and on patient health, according to a new report by Micros… [+5711 chars]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.digitaltrends.com/computing/mcafee-premium-for-mac-review/</t>
+          <t>https://qz.com/hospital-ransomware-report-microsoft-1851677901</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Theregister.com</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CISA Warns of Critical Fortinet Flaw as Palo Alto and Cisco Issue Urgent Security Patches</t>
+          <t>Sophos to snatch Secureworks in $859M buyout: Why fight when you can just buy?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>info@thehackernews.com (The Hacker News)</t>
+          <t>Iain Thomson</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The U.S. Cybersecurity and Infrastructure Security Agency (CISA) on Wednesday added a critical security flaw impacting Fortinet products to its Known Exploited Vulnerabilities (KEV) catalog, citing evidence of active exploitation.
-The vulnerability, tracked a…</t>
+          <t>Private equity giant Thoma Bravo adds another trophy to its growing collection
+British security biz Sophos has announced a plan to gobble up competitor Secureworks in an $859 million deal that will make Dell happy.…</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The U.S. Cybersecurity and Infrastructure Security Agency (CISA) on Wednesday added a critical security flaw impacting Fortinet products to its Known Exploited Vulnerabilities (KEV) catalog, citing e… [+4213 chars]</t>
+          <t>British security biz Sophos has announced a plan to gobble up competitor Secureworks in an $859 million deal that will make Dell happy.
+The server maker bought Secureworks in 2011, and tried to spin… [+2071 chars]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2024/10/cisa-warns-of-critical-fortinet-flaw-as.html</t>
+          <t>https://www.theregister.com/2024/10/21/sophos_buys_secureworks_thoma_bravo/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Researchers Discover Severe Security Flaws in Major E2EE Cloud Storage Providers</t>
+          <t>Why you should be using a VPN to safeguard your stock trading activities</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>info@thehackernews.com (The Hacker News)</t>
+          <t>Kurt Knutsson, CyberGuy Report</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cybersecurity researchers have discovered severe cryptographic issues in various end-to-end encrypted (E2EE) cloud storage platforms that could be exploited to leak sensitive data.
-"The vulnerabilities range in severity: in many cases a malicious server can i…</t>
+          <t>Every stock trader should consider a Virtual Private Network to safeguard their trading, according to tech guru Kurt "CyberGuy" Knutsson.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cybersecurity researchers have discovered severe cryptographic issues in various end-to-end encrypted (E2EE) cloud storage platforms that could be exploited to leak sensitive data.
-"The vulnerabilit… [+4157 chars]</t>
+          <t>Online stock trading has become increasingly popular. 
+However, with this convenience comes the need for heightened security measures to protect your sensitive financial information and trading acti… [+8421 chars]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2024/10/researchers-discover-severe-security.html</t>
+          <t>https://www.foxnews.com/tech/why-you-should-using-vpn-safeguard-your-stock-trading-activities</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Schneier.com</t>
+          <t>9to5Mac</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Deebot Robot Vacuums Are Using Photos and Audio to Train Their AI</t>
+          <t>Apple @ Work: Initial macOS Sequoia release broke networking for security and VPN tools – who’s responsible?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bruce Schneier</t>
+          <t>Bradley Chambers</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>An Australian news agency is reporting that robot vacuum cleaners from the Chinese company Deebot are surreptitiously taking photos and recording audio, and sending that data back to the vendor to train their AIs.
-Ecovacs’s privacy policy—available elsewhere …</t>
+          <t>Apple @ Work is exclusively brought to you by Mosyle, the only Apple Unified Platform. Mosyle is the only solution that integrates in a single professional-grade platform all the solutions necessary to seamlessly and automatically deploy, manage &amp; protect App…</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>An Australian news agency is reporting that robot vacuum cleaners from the Chinese company Deebot are surreptitiously taking photos and recording audio, and sending that data back to the vendor to tr… [+774 chars]</t>
+          <t>Apple @ Work is exclusively brought to you by Mosyle, the only Apple Unified Platform. Mosyle is the only solution that integrates in a single professional-grade platform all the solutions necessary … [+4295 chars]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.schneier.com/blog/archives/2024/10/deebot-robot-vacuums-are-using-photos-and-audio-to-train-their-ai.html</t>
+          <t>https://9to5mac.com/2024/10/12/macos-sequoia-breaks-network-for-security-and-vpn-tools-whos-responsible/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>TechRadar</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>23andMe is floundering. Here is how to delete your data.</t>
+          <t>Creating the perfect ecosystem for cybersecurity</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lauren Edmonds</t>
+          <t>Brian Sibley</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>23andMe's once rising star has dimmed amid a series of setbacks, leading some users to wonder what will happen to their genetic data.</t>
+          <t>Implementing shared threat intelligence across an alliance of cybersecurity experts creates a stronger security approach.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>23andMe has navigated several obstacles in recent years, triggering concern from consumers.ERIC BARADAT/Getty Images
-&lt;ul&gt;&lt;li&gt;23andMe's business is floundering after a data hack, lawsuit, and tumblin… [+4491 chars]</t>
+          <t>Cybersecurity is an ever-evolving field and cannot be set up once and then forgotten. As data and applications move to the cloud, businesses can enjoy various benefits, but many struggle to protect t… [+6457 chars]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/how-to-delete-your-23andme-data-2024-10</t>
+          <t>https://www.techradar.com/pro/creating-the-perfect-ecosystem-for-cybersecurity</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>US lawmakers seek answers on alleged Salt Typhoon breach of telecom giants</t>
+          <t>Would banning ransomware insurance stop the scourge?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2836,529 +2839,544 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cyberspies abusing a backdoor? Groundbreaking
-Lawmakers are demanding answers about earlier news reports that China's Salt Typhoon cyberspies breached US telecommunications companies Verizon, AT&amp;T, and Lumen Technologies, and hacked their wiretapping systems.…</t>
+          <t>White House official makes case for ending extortion reimbursements
+Ransomware attacks are costing businesses and governments billions of dollars and putting people's lives at risk – in some cases, reportedly causing their deaths.…&lt;!--#include virtual='/data_…</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lawmakers are demanding answers about earlier news reports that China's Salt Typhoon cyberspies breached US telecommunications companies Verizon, AT&amp;amp;T, and Lumen Technologies, and hacked their wi… [+3154 chars]</t>
+          <t>Ransomware attacks are costing businesses and governments billions of dollars and putting people's lives at risk in some cases, reportedly causing their deaths.
+No one disputes that this particularl… [+8077 chars]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.theregister.com/2024/10/11/us_lawmakers_salt_typhoon/</t>
+          <t>https://www.theregister.com/2024/10/14/ransomware_insurance_ban/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>heise online</t>
+          <t>TechRadar</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>heise-Angebot: iX-Workshop: Einführung in die SAP Business Technology Platform (BTP)</t>
+          <t>Navigating the complexities of healthcare cybersecurity</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ilona Krause</t>
+          <t>Rajan Kohli</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Lernen Sie, wie Sie mit SAP BTP Anwendungen entwickeln, Schnittstellen integrieren und Geschäftsprozesse optimieren.</t>
+          <t>Healthcare is a critical part of everyday life, so why is patient information still at risk from cyberattackers?</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Die SAP Business Technology Platform (SAP BTP) von SAP unterstützt Unternehmen beim Umstieg in die Cloud und bei der Verbesserung ihrer Geschäftsprozesse. Sie stellt eine Vielzahl von Tools und Diens… [+1684 chars]</t>
+          <t>With cyberattacks skyrocketing at an alarming rate, healthcare organizations are scrambling to implement effective measures to prevent these threats. According to the U.S. Department of Health and Hu… [+9753 chars]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.heise.de/news/iX-Workshop-Einfuehrung-in-die-SAP-Business-Technology-Platform-BTP-9954502.html</t>
+          <t>https://www.techradar.com/pro/navigating-the-complexities-of-healthcare-cybersecurity</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Quartz India</t>
+          <t>TechRadar</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>All hospitals should be concerned about cyberattacks. Here's why</t>
+          <t>Can the cybersecurity industry stop history repeating?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bruce Gil</t>
+          <t>Gary Southwell</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cybersecurity attacks against the health care industry are rapidly increasing and taking a toll both financially on hospitals and on patient health, according to a new report by Microsoft (MSFT).Read more...</t>
+          <t>Cybersecurity vendors must abandon the "patch-and-update" model to prevent future catastrophic IT outages.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>In This Story
-Cybersecurity attacks against the health care industry are rapidly increasing and taking a toll both financially on hospitals and on patient health, according to a new report by Micros… [+5711 chars]</t>
+          <t>CrowdStrike was brought before a US Congressional Committee on September 24 to explain why its cybersecurity solution triggered one of the largest IT outages ever seen. A senior official told Congres… [+5861 chars]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://qz.com/hospital-ransomware-report-microsoft-1851677901</t>
+          <t>https://www.techradar.com/pro/can-the-cybersecurity-industry-stop-history-repeating</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Theregister.com</t>
+          <t>Forbes</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sophos to snatch Secureworks in $859M buyout: Why fight when you can just buy?</t>
+          <t>A Novel Approach To Cybersecurity In Healthcare</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
-        <is>
-          <t>Iain Thomson</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Private equity giant Thoma Bravo adds another trophy to its growing collection
-British security biz Sophos has announced a plan to gobble up competitor Secureworks in an $859 million deal that will make Dell happy.…</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>British security biz Sophos has announced a plan to gobble up competitor Secureworks in an $859 million deal that will make Dell happy.
-The server maker bought Secureworks in 2011, and tried to spin… [+2071 chars]</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>https://www.theregister.com/2024/10/21/sophos_buys_secureworks_thoma_bravo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>9to5Mac</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Apple @ Work: Initial macOS Sequoia release broke networking for security and VPN tools – who’s responsible?</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Bradley Chambers</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Apple @ Work is exclusively brought to you by Mosyle, the only Apple Unified Platform. Mosyle is the only solution that integrates in a single professional-grade platform all the solutions necessary to seamlessly and automatically deploy, manage &amp; protect App…</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Apple @ Work is exclusively brought to you by Mosyle, the only Apple Unified Platform. Mosyle is the only solution that integrates in a single professional-grade platform all the solutions necessary … [+4295 chars]</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>https://9to5mac.com/2024/10/12/macos-sequoia-breaks-network-for-security-and-vpn-tools-whos-responsible/</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>TechRadar</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Creating the perfect ecosystem for cybersecurity</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Brian Sibley</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Implementing shared threat intelligence across an alliance of cybersecurity experts creates a stronger security approach.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Cybersecurity is an ever-evolving field and cannot be set up once and then forgotten. As data and applications move to the cloud, businesses can enjoy various benefits, but many struggle to protect t… [+6457 chars]</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>https://www.techradar.com/pro/creating-the-perfect-ecosystem-for-cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>TechRadar</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Navigating the complexities of healthcare cybersecurity</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Rajan Kohli</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Healthcare is a critical part of everyday life, so why is patient information still at risk from cyberattackers?</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>With cyberattacks skyrocketing at an alarming rate, healthcare organizations are scrambling to implement effective measures to prevent these threats. According to the U.S. Department of Health and Hu… [+9753 chars]</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://www.techradar.com/pro/navigating-the-complexities-of-healthcare-cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>TechRadar</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Can the cybersecurity industry stop history repeating?</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Gary Southwell</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Cybersecurity vendors must abandon the "patch-and-update" model to prevent future catastrophic IT outages.</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>CrowdStrike was brought before a US Congressional Committee on September 24 to explain why its cybersecurity solution triggered one of the largest IT outages ever seen. A senior official told Congres… [+5861 chars]</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>https://www.techradar.com/pro/can-the-cybersecurity-industry-stop-history-repeating</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Theregister.com</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Would banning ransomware insurance stop the scourge?</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Jessica Lyons</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>White House official makes case for ending extortion reimbursements
-Ransomware attacks are costing businesses and governments billions of dollars and putting people's lives at risk – in some cases, reportedly causing their deaths.…&lt;!--#include virtual='/data_…</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Ransomware attacks are costing businesses and governments billions of dollars and putting people's lives at risk in some cases, reportedly causing their deaths.
-No one disputes that this particularl… [+8077 chars]</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>https://www.theregister.com/2024/10/14/ransomware_insurance_ban/</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Forbes</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>A Novel Approach To Cybersecurity In Healthcare</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>Rich Birhanzel, Forbes Councils Member, 
  Rich Birhanzel, Forbes Councils Member
  https://www.forbes.com/councils/forbesbusinesscouncil/people/richbirhanzel/</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>What if—in a world where security breaches are commonplace and it’s not a matter of if, but when, an organization will be attacked—we shifted our focus to resilience?</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Rich Birhanzel, Accenture's global health industry lead.
 getty
 It feels like every day we hear about a different cyberattack in healthcare. An organization is breached and operations are brought to… [+5031 chars]</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.forbes.com/councils/forbesbusinesscouncil/2024/10/01/a-novel-approach-to-cybersecurity-in-healthcare/</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>The Untapped Potential Of Women In Cybersecurity</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Shelley Zalis, Senior Contributor, 
  Shelley Zalis, Senior Contributor
  https://www.forbes.com/sites/shelleyzalis/people/shelleyzalis/</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Despite its growing importance, women remain underrepresented in this rapidly expanding field.</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>POV Reimagined: Women in Cybersecurity research report
 Getty 
 Cybersecurity has evolved from a niche field into a critical industry that touches every aspect of our livesfrom protecting personal da… [+6045 chars]</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.forbes.com/sites/shelleyzalis/2024/10/23/the-untapped-potential-of-women-in-cybersecurity/</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>How Cybersecurity Investigations Help Businesses Expose Attackers</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Damon Fleury, Forbes Councils Member, 
  Damon Fleury, Forbes Councils Member
  https://www.forbes.com/councils/forbestechcouncil/people/damonfleury/</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>No cybercriminal can cover their tracks completely.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Damon Fleury is Chief Product Officer of SpyCloud, a leader in operationalizing Cybercrime Analytics (C2A).
 getty
 Organizations have struggled to keep pace with rapidly evolving and escalating cybe… [+5471 chars]</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.forbes.com/councils/forbestechcouncil/2024/10/17/how-cybersecurity-investigations-help-businesses-expose-attackers/</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Cybersecurity Stocks Seeing Early AI Gains</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Beth Kindig, Contributor, 
- Beth Kindig, Contributor
- https://www.forbes.com/sites/bethkindig/</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Four leading cybersecurity firms are seeing AI impact revenue and pave the way for sustainable long-term growth. We dug up some important never-before published data ...</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Cybersecurity is becoming increasingly important in the age of AI, as the number and sophistication of threats increase. Combining cybersecurity with AI has a natural affinity as cyberattacks are com… [+14397 chars]</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>https://www.forbes.com/sites/bethkindig/2024/09/26/cybersecurity-stocks-seeing-early-ai-gains/</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Forbes</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Can AI Save Cybersecurity From Itself?</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Saket Modi, Forbes Councils Member, 
  Saket Modi, Forbes Councils Member
  https://www.forbes.com/councils/forbestechcouncil/people/saketmodi/</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>AI could be cybersecurity’s best shot at synthesizing wisdom—let’s use it wisely.</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Saket Modi is the cofounder and CEO of Safe Security, a Palo Alto-based cybersecurity and digital business risk quantification company.
 getty
 Despite spending $200 billion annually on cybersecurity… [+5046 chars]</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.forbes.com/councils/forbestechcouncil/2024/10/04/can-ai-save-cybersecurity-from-itself/</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Legacy Medical Device Cybersecurity: Challenges And Solutions</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Christian Espinosa, Forbes Councils Member, 
  Christian Espinosa, Forbes Councils Member
  https://www.forbes.com/councils/forbestechcouncil/people/christianespinosa/</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>It’s an iterative process because risk never disappears, and products must continuously evolve to new standards.</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Blue Goat Cyber Founder. Veteran. Medical Device Cybersecurity Expert. Keynote Speaker. Author. 24x Ironman Finisher. Blood Clot Survivor.
 getty
 Much of the conversation about medical device cybers… [+5124 chars]</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.forbes.com/councils/forbestechcouncil/2024/10/16/legacy-medical-device-cybersecurity-challenges-and-solutions/</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Forbes</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Cybersecurity: A Strategic Imperative For Business Leaders</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Daniel Baiz, Forbes Councils Member, 
  Daniel Baiz, Forbes Councils Member
  https://www.forbes.com/councils/forbesbusinesscouncil/people/danielbaiz/</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>For businesses housing valuable data but lacking the defenses of larger corporations, a cybersecurity threat is typically a matter of when, not if.</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Daniel Baiz, Harvard MBA and CEO of OneAxiom - a leader in global cybersecurity solutions and advanced defense systems.
 getty
 As the CEO of a cybersecurity firm, I've witnessed the evolution of cyb… [+7042 chars]</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/councils/forbesbusinesscouncil/2024/10/10/cybersecurity-a-strategic-imperative-for-business-leaders/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Protection From Within: Cybersecurity Communication Strategies</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Victoria Zambito, Forbes Councils Member, 
+ Victoria Zambito, Forbes Councils Member
+ https://www.forbes.com/councils/forbescommunicationscouncil/people/victoriazambito/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>In an environment where cybersecurity is a regular topic of conversation, you are much more likely to prevent a devastating breach before it happens.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Victoria Zambito is EVP of Communications &amp;amp; Brand at Vector Solutions, leading corporate communications, brand and public relations.
+getty
+There were a total of 343,348,964 victims of cyberatta… [+6517 chars]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/councils/forbescommunicationscouncil/2024/10/01/protection-from-within-cybersecurity-communication-strategies/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>The Rising Tide Of Cybersecurity Risk</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Craig Burland, Forbes Councils Member, 
+ Craig Burland, Forbes Councils Member
+ https://www.forbes.com/councils/forbestechcouncil/people/craigburland/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Even as organizations have invested more in technology and cybersecurity, global cyber threats have outpaced their efforts.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Craig Burland is a Chief Information Security Officer with Inversion6.
+getty
+John F. Kennedy famously stated, A rising tide lifts all boats in the 1960s while promoting government infrastructure in… [+5467 chars]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/councils/forbestechcouncil/2024/09/27/the-rising-tide-of-cybersecurity-risk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>What CIOs Must Consider With Sophos Buying Secureworks</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>David Chou, Contributor, 
+ David Chou, Contributor
+ https://www.forbes.com/sites/davidchou/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Thoma Bravo-backed cybersecurity firm Sophos has announced its acquisition of Secureworks, a cybersecurity service provider, for approximately $859 million to strength...</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sophos
+ullstein bild via Getty Images
+Thoma Bravo-backed cybersecurity firm Sophos has announced its acquisition of Secureworks, a cybersecurity service provider, for approximately $859 million to … [+2972 chars]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/sites/davidchou/2024/10/21/what-cios-must-consider-with-sophos-buying-secureworks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Defending The Nation’s Infrastructure With A Shared Culture Of Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Stu Sjouwerman, Forbes Councils Member, 
+ Stu Sjouwerman, Forbes Councils Member
+ https://www.forbes.com/councils/forbestechcouncil/people/stusjouwerman1/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Let’s explore some best practices that can help organizations breed a culture of cybersecurity which could then plug into a larger national cybersecurity objective.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Stu Sjouwerman is the founder and CEO of KnowBe4 Inc., a security awareness training and simulated phishing platform.
+getty
+In May 2023, China-backed threat actors called Volt Typhoon compromised M… [+5639 chars]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/councils/forbestechcouncil/2024/10/01/defending-the-nations-infrastructure-with-a-shared-culture-of-cybersecurity/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Cybersecurity Risks: When AI Becomes A Tool For Evil</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Emil Sayegh, Contributor, 
+ Emil Sayegh, Contributor
+ https://www.forbes.com/sites/emilsayegh/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Explore the dual-edged sword of AI in cybersecurity, where  LLMs are used for both defense and malicious exploits. Published in honor of Cybersecurity Awareness Month.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Hackers are leveraging AI to automate and scale attacks, pushing the boundaries of traditional ... [+] cybersecurity defenses
+getty
+October marks Cybersecurity Awareness Month, a perfect moment to … [+5500 chars]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/sites/emilsayegh/2024/10/08/cybersecurity-risks-when-ai-becomes-a-tool-for-evil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hdblog.it</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cybersecurity sistemi fotovoltaici: l'indagine del Divd (Olanda)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>HDblog.it</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>I ricercatori del Divd (Olanda) hanno scoperto e sfruttato vulnerabilità su alcuni sistemi di controllo degli impianti fotovoltaici, collaborando alla loro risoluzione. In evidenza i rischi delle interfacce IoT.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Nell'era dell'IoT (Internet of Things) nessun dispositivo connesso alla rete può ritenersi al sicuro nei confronti di un attacco di sicurezza informatica. Non fanno eccezione gli impianti fotovoltaic… [+4454 chars]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.hdblog.it/green/articoli/n594578/cybersecurity-sistema-fotovoltaico-vulnerabilita/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Techmeme.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>An investigation finds over a dozen crypto companies unknowingly hired IT workers, who used fake IDs and successfully navigated interviews, from North Korea (Sam Kessler/CoinDesk)</t>
+        </is>
+      </c>
+      <c r="C101"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sam Kessler / CoinDesk:
+An investigation finds over a dozen crypto companies unknowingly hired IT workers, who used fake IDs and successfully navigated interviews, from North Korea  —  More than a dozen blockchain firms inadvertently hired undercover IT worke…</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>About This Page
+This is a Techmeme archive page.
+It shows how the site appeared at 11:15 PM ET, October 2, 2024.
+The most current version of the site as always is available at our home page.
+To v… [+164 chars]</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/councils/forbesbusinesscouncil/2024/10/10/cybersecurity-a-strategic-imperative-for-business-leaders/</t>
+          <t>https://www.techmeme.com/241002/p36</t>
         </is>
       </c>
     </row>
